--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shun/work/nba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C716A5E9-8905-4F4F-AB95-FDC7D274F4E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EA4D0E-D0CF-564E-87D8-0AD7BE337030}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="460" windowWidth="24200" windowHeight="14000" xr2:uid="{DCC646C4-BC1D-064E-93C5-9541AA6AEE7C}"/>
+    <workbookView xWindow="8020" yWindow="560" windowWidth="24200" windowHeight="14000" xr2:uid="{DCC646C4-BC1D-064E-93C5-9541AA6AEE7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
   <si>
     <t>チーム名</t>
     <phoneticPr fontId="2"/>
@@ -77,6 +77,20 @@
   </si>
   <si>
     <t>ポジション</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>背番号</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">セバンゴウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>選手名</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">センシュメイ </t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -240,12 +254,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -254,9 +262,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -272,6 +277,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -590,14 +604,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFABBAA1-CF09-DE41-BABF-0DCB34D06520}">
   <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.7109375" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.140625" style="1" customWidth="1"/>
@@ -1679,7 +1691,7 @@
     <col min="16147" max="16384" width="7.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="28">
+    <row r="1" spans="1:23" ht="36" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1706,7 +1718,7 @@
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" ht="28" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="4"/>
@@ -1757,584 +1769,589 @@
       <c r="W3" s="4"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8" t="s">
+      <c r="L5" s="6"/>
+      <c r="M5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8" t="s">
+      <c r="O5" s="6"/>
+      <c r="P5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8" t="s">
+      <c r="R5" s="6"/>
+      <c r="S5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="8" t="s">
+      <c r="T5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8" t="s">
+      <c r="U5" s="6"/>
+      <c r="V5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="W5" s="8" t="s">
+      <c r="W5" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="12"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="9"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="11"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="8"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="6"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="11"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="8"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="6"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="12"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="11"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="14"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="11"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="11"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="8"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="6"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="8"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="6"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="11"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="8"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="6"/>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="11"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="8"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="6"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="11"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="8"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="6"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="11"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="8"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="6"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="11"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="8"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="6"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="11"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="8"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="6"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="11"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="8"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="6"/>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="11"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="14"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="11"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="11"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="14"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="11"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="15"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
     </row>
     <row r="24" spans="1:23">
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
     </row>
     <row r="25" spans="1:23">
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
     </row>
     <row r="26" spans="1:23">
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="C23:R26"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
@@ -3519,581 +3536,581 @@
       <c r="W3" s="4"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8" t="s">
+      <c r="L5" s="6"/>
+      <c r="M5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8" t="s">
+      <c r="O5" s="6"/>
+      <c r="P5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8" t="s">
+      <c r="R5" s="6"/>
+      <c r="S5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="8" t="s">
+      <c r="T5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8" t="s">
+      <c r="U5" s="6"/>
+      <c r="V5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="W5" s="8" t="s">
+      <c r="W5" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="12"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="9"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="11"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="8"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="6"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="11"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="8"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="6"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="12"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="11"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="14"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="11"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="11"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="8"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="6"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="8"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="6"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="11"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="8"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="6"/>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="11"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="8"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="6"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="11"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="8"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="6"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="11"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="8"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="6"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="11"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="8"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="6"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="11"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="8"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="6"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="11"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="8"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="6"/>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="11"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="14"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="11"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="11"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="14"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="11"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="15"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
     </row>
     <row r="24" spans="1:23">
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
     </row>
     <row r="25" spans="1:23">
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
     </row>
     <row r="26" spans="1:23">
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shun/work/nba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EA4D0E-D0CF-564E-87D8-0AD7BE337030}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3710D67F-FB66-1C41-A030-4AA46B4819A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8020" yWindow="560" windowWidth="24200" windowHeight="14000" xr2:uid="{DCC646C4-BC1D-064E-93C5-9541AA6AEE7C}"/>
+    <workbookView xWindow="1400" yWindow="560" windowWidth="24200" windowHeight="14000" activeTab="1" xr2:uid="{DCC646C4-BC1D-064E-93C5-9541AA6AEE7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -278,14 +278,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -602,9 +602,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFABBAA1-CF09-DE41-BABF-0DCB34D06520}">
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.7109375" defaultRowHeight="14"/>
   <cols>
@@ -1770,25 +1772,25 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="5"/>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="6"/>
@@ -1809,13 +1811,13 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="7"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6" t="s">
         <v>1</v>
@@ -2278,81 +2280,156 @@
       <c r="W22" s="10"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="11"/>
     </row>
     <row r="24" spans="1:23">
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="11"/>
     </row>
     <row r="25" spans="1:23">
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
     </row>
     <row r="26" spans="1:23">
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C23:R26"/>
+    <mergeCell ref="C26:R29"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
@@ -2367,11 +2444,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007F95C3-485F-C04D-B474-5A9DD6FD5CFD}">
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.7109375" defaultRowHeight="14"/>
   <cols>
@@ -3538,20 +3613,20 @@
     <row r="4" spans="1:23">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="6"/>
@@ -3573,12 +3648,12 @@
     <row r="5" spans="1:23">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6" t="s">
         <v>1</v>
@@ -4041,80 +4116,155 @@
       <c r="W22" s="10"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="11"/>
     </row>
     <row r="24" spans="1:23">
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="11"/>
     </row>
     <row r="25" spans="1:23">
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
     </row>
     <row r="26" spans="1:23">
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C23:R26"/>
+    <mergeCell ref="C26:R29"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shun/work/nba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3710D67F-FB66-1C41-A030-4AA46B4819A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0E68A5-C5C7-2F49-8A31-7EDB5C038A57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="560" windowWidth="24200" windowHeight="14000" activeTab="1" xr2:uid="{DCC646C4-BC1D-064E-93C5-9541AA6AEE7C}"/>
+    <workbookView xWindow="1400" yWindow="1160" windowWidth="24200" windowHeight="14000" xr2:uid="{DCC646C4-BC1D-064E-93C5-9541AA6AEE7C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
   <si>
     <t>チーム名</t>
     <phoneticPr fontId="2"/>
@@ -62,13 +62,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>生年月日</t>
-    <rPh sb="0" eb="4">
-      <t xml:space="preserve">セイネンガッピ </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>経験年数</t>
     <rPh sb="0" eb="4">
       <t xml:space="preserve">ケイケンエンスウ </t>
@@ -80,16 +73,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>背番号</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">セバンゴウ </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>選手名</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">センシュメイ </t>
+    <t>年齢</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ネンレイ </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -178,7 +164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -229,6 +215,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -238,7 +250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -278,14 +290,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -601,1864 +619,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFABBAA1-CF09-DE41-BABF-0DCB34D06520}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6B4AF8-142E-8E40-A8CA-7E7478B22864}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD22"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.7109375" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" style="1" customWidth="1"/>
-    <col min="9" max="23" width="6.28515625" style="1" customWidth="1"/>
-    <col min="24" max="257" width="7.7109375" style="1"/>
-    <col min="258" max="258" width="3.7109375" style="1" customWidth="1"/>
-    <col min="259" max="259" width="9.140625" style="1" customWidth="1"/>
-    <col min="260" max="260" width="24.7109375" style="1" customWidth="1"/>
-    <col min="261" max="261" width="6" style="1" customWidth="1"/>
-    <col min="262" max="262" width="6.140625" style="1" customWidth="1"/>
-    <col min="263" max="263" width="5.5703125" style="1" customWidth="1"/>
-    <col min="264" max="264" width="4.85546875" style="1" customWidth="1"/>
-    <col min="265" max="265" width="4.140625" style="1" customWidth="1"/>
-    <col min="266" max="267" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="268" max="268" width="9.7109375" style="1" customWidth="1"/>
-    <col min="269" max="269" width="3.7109375" style="1" customWidth="1"/>
-    <col min="270" max="270" width="2.42578125" style="1" customWidth="1"/>
-    <col min="271" max="271" width="3.7109375" style="1" customWidth="1"/>
-    <col min="272" max="272" width="6.5703125" style="1" customWidth="1"/>
-    <col min="273" max="273" width="2.42578125" style="1" customWidth="1"/>
-    <col min="274" max="274" width="6.28515625" style="1" customWidth="1"/>
-    <col min="275" max="513" width="7.7109375" style="1"/>
-    <col min="514" max="514" width="3.7109375" style="1" customWidth="1"/>
-    <col min="515" max="515" width="9.140625" style="1" customWidth="1"/>
-    <col min="516" max="516" width="24.7109375" style="1" customWidth="1"/>
-    <col min="517" max="517" width="6" style="1" customWidth="1"/>
-    <col min="518" max="518" width="6.140625" style="1" customWidth="1"/>
-    <col min="519" max="519" width="5.5703125" style="1" customWidth="1"/>
-    <col min="520" max="520" width="4.85546875" style="1" customWidth="1"/>
-    <col min="521" max="521" width="4.140625" style="1" customWidth="1"/>
-    <col min="522" max="523" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="524" max="524" width="9.7109375" style="1" customWidth="1"/>
-    <col min="525" max="525" width="3.7109375" style="1" customWidth="1"/>
-    <col min="526" max="526" width="2.42578125" style="1" customWidth="1"/>
-    <col min="527" max="527" width="3.7109375" style="1" customWidth="1"/>
-    <col min="528" max="528" width="6.5703125" style="1" customWidth="1"/>
-    <col min="529" max="529" width="2.42578125" style="1" customWidth="1"/>
-    <col min="530" max="530" width="6.28515625" style="1" customWidth="1"/>
-    <col min="531" max="769" width="7.7109375" style="1"/>
-    <col min="770" max="770" width="3.7109375" style="1" customWidth="1"/>
-    <col min="771" max="771" width="9.140625" style="1" customWidth="1"/>
-    <col min="772" max="772" width="24.7109375" style="1" customWidth="1"/>
-    <col min="773" max="773" width="6" style="1" customWidth="1"/>
-    <col min="774" max="774" width="6.140625" style="1" customWidth="1"/>
-    <col min="775" max="775" width="5.5703125" style="1" customWidth="1"/>
-    <col min="776" max="776" width="4.85546875" style="1" customWidth="1"/>
-    <col min="777" max="777" width="4.140625" style="1" customWidth="1"/>
-    <col min="778" max="779" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="780" max="780" width="9.7109375" style="1" customWidth="1"/>
-    <col min="781" max="781" width="3.7109375" style="1" customWidth="1"/>
-    <col min="782" max="782" width="2.42578125" style="1" customWidth="1"/>
-    <col min="783" max="783" width="3.7109375" style="1" customWidth="1"/>
-    <col min="784" max="784" width="6.5703125" style="1" customWidth="1"/>
-    <col min="785" max="785" width="2.42578125" style="1" customWidth="1"/>
-    <col min="786" max="786" width="6.28515625" style="1" customWidth="1"/>
-    <col min="787" max="1025" width="7.7109375" style="1"/>
-    <col min="1026" max="1026" width="3.7109375" style="1" customWidth="1"/>
-    <col min="1027" max="1027" width="9.140625" style="1" customWidth="1"/>
-    <col min="1028" max="1028" width="24.7109375" style="1" customWidth="1"/>
-    <col min="1029" max="1029" width="6" style="1" customWidth="1"/>
-    <col min="1030" max="1030" width="6.140625" style="1" customWidth="1"/>
-    <col min="1031" max="1031" width="5.5703125" style="1" customWidth="1"/>
-    <col min="1032" max="1032" width="4.85546875" style="1" customWidth="1"/>
-    <col min="1033" max="1033" width="4.140625" style="1" customWidth="1"/>
-    <col min="1034" max="1035" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="1036" max="1036" width="9.7109375" style="1" customWidth="1"/>
-    <col min="1037" max="1037" width="3.7109375" style="1" customWidth="1"/>
-    <col min="1038" max="1038" width="2.42578125" style="1" customWidth="1"/>
-    <col min="1039" max="1039" width="3.7109375" style="1" customWidth="1"/>
-    <col min="1040" max="1040" width="6.5703125" style="1" customWidth="1"/>
-    <col min="1041" max="1041" width="2.42578125" style="1" customWidth="1"/>
-    <col min="1042" max="1042" width="6.28515625" style="1" customWidth="1"/>
-    <col min="1043" max="1281" width="7.7109375" style="1"/>
-    <col min="1282" max="1282" width="3.7109375" style="1" customWidth="1"/>
-    <col min="1283" max="1283" width="9.140625" style="1" customWidth="1"/>
-    <col min="1284" max="1284" width="24.7109375" style="1" customWidth="1"/>
-    <col min="1285" max="1285" width="6" style="1" customWidth="1"/>
-    <col min="1286" max="1286" width="6.140625" style="1" customWidth="1"/>
-    <col min="1287" max="1287" width="5.5703125" style="1" customWidth="1"/>
-    <col min="1288" max="1288" width="4.85546875" style="1" customWidth="1"/>
-    <col min="1289" max="1289" width="4.140625" style="1" customWidth="1"/>
-    <col min="1290" max="1291" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="1292" max="1292" width="9.7109375" style="1" customWidth="1"/>
-    <col min="1293" max="1293" width="3.7109375" style="1" customWidth="1"/>
-    <col min="1294" max="1294" width="2.42578125" style="1" customWidth="1"/>
-    <col min="1295" max="1295" width="3.7109375" style="1" customWidth="1"/>
-    <col min="1296" max="1296" width="6.5703125" style="1" customWidth="1"/>
-    <col min="1297" max="1297" width="2.42578125" style="1" customWidth="1"/>
-    <col min="1298" max="1298" width="6.28515625" style="1" customWidth="1"/>
-    <col min="1299" max="1537" width="7.7109375" style="1"/>
-    <col min="1538" max="1538" width="3.7109375" style="1" customWidth="1"/>
-    <col min="1539" max="1539" width="9.140625" style="1" customWidth="1"/>
-    <col min="1540" max="1540" width="24.7109375" style="1" customWidth="1"/>
-    <col min="1541" max="1541" width="6" style="1" customWidth="1"/>
-    <col min="1542" max="1542" width="6.140625" style="1" customWidth="1"/>
-    <col min="1543" max="1543" width="5.5703125" style="1" customWidth="1"/>
-    <col min="1544" max="1544" width="4.85546875" style="1" customWidth="1"/>
-    <col min="1545" max="1545" width="4.140625" style="1" customWidth="1"/>
-    <col min="1546" max="1547" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="1548" max="1548" width="9.7109375" style="1" customWidth="1"/>
-    <col min="1549" max="1549" width="3.7109375" style="1" customWidth="1"/>
-    <col min="1550" max="1550" width="2.42578125" style="1" customWidth="1"/>
-    <col min="1551" max="1551" width="3.7109375" style="1" customWidth="1"/>
-    <col min="1552" max="1552" width="6.5703125" style="1" customWidth="1"/>
-    <col min="1553" max="1553" width="2.42578125" style="1" customWidth="1"/>
-    <col min="1554" max="1554" width="6.28515625" style="1" customWidth="1"/>
-    <col min="1555" max="1793" width="7.7109375" style="1"/>
-    <col min="1794" max="1794" width="3.7109375" style="1" customWidth="1"/>
-    <col min="1795" max="1795" width="9.140625" style="1" customWidth="1"/>
-    <col min="1796" max="1796" width="24.7109375" style="1" customWidth="1"/>
-    <col min="1797" max="1797" width="6" style="1" customWidth="1"/>
-    <col min="1798" max="1798" width="6.140625" style="1" customWidth="1"/>
-    <col min="1799" max="1799" width="5.5703125" style="1" customWidth="1"/>
-    <col min="1800" max="1800" width="4.85546875" style="1" customWidth="1"/>
-    <col min="1801" max="1801" width="4.140625" style="1" customWidth="1"/>
-    <col min="1802" max="1803" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="1804" max="1804" width="9.7109375" style="1" customWidth="1"/>
-    <col min="1805" max="1805" width="3.7109375" style="1" customWidth="1"/>
-    <col min="1806" max="1806" width="2.42578125" style="1" customWidth="1"/>
-    <col min="1807" max="1807" width="3.7109375" style="1" customWidth="1"/>
-    <col min="1808" max="1808" width="6.5703125" style="1" customWidth="1"/>
-    <col min="1809" max="1809" width="2.42578125" style="1" customWidth="1"/>
-    <col min="1810" max="1810" width="6.28515625" style="1" customWidth="1"/>
-    <col min="1811" max="2049" width="7.7109375" style="1"/>
-    <col min="2050" max="2050" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2051" max="2051" width="9.140625" style="1" customWidth="1"/>
-    <col min="2052" max="2052" width="24.7109375" style="1" customWidth="1"/>
-    <col min="2053" max="2053" width="6" style="1" customWidth="1"/>
-    <col min="2054" max="2054" width="6.140625" style="1" customWidth="1"/>
-    <col min="2055" max="2055" width="5.5703125" style="1" customWidth="1"/>
-    <col min="2056" max="2056" width="4.85546875" style="1" customWidth="1"/>
-    <col min="2057" max="2057" width="4.140625" style="1" customWidth="1"/>
-    <col min="2058" max="2059" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="2060" max="2060" width="9.7109375" style="1" customWidth="1"/>
-    <col min="2061" max="2061" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2062" max="2062" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2063" max="2063" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2064" max="2064" width="6.5703125" style="1" customWidth="1"/>
-    <col min="2065" max="2065" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2066" max="2066" width="6.28515625" style="1" customWidth="1"/>
-    <col min="2067" max="2305" width="7.7109375" style="1"/>
-    <col min="2306" max="2306" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2307" max="2307" width="9.140625" style="1" customWidth="1"/>
-    <col min="2308" max="2308" width="24.7109375" style="1" customWidth="1"/>
-    <col min="2309" max="2309" width="6" style="1" customWidth="1"/>
-    <col min="2310" max="2310" width="6.140625" style="1" customWidth="1"/>
-    <col min="2311" max="2311" width="5.5703125" style="1" customWidth="1"/>
-    <col min="2312" max="2312" width="4.85546875" style="1" customWidth="1"/>
-    <col min="2313" max="2313" width="4.140625" style="1" customWidth="1"/>
-    <col min="2314" max="2315" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="2316" max="2316" width="9.7109375" style="1" customWidth="1"/>
-    <col min="2317" max="2317" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2318" max="2318" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2319" max="2319" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2320" max="2320" width="6.5703125" style="1" customWidth="1"/>
-    <col min="2321" max="2321" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2322" max="2322" width="6.28515625" style="1" customWidth="1"/>
-    <col min="2323" max="2561" width="7.7109375" style="1"/>
-    <col min="2562" max="2562" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2563" max="2563" width="9.140625" style="1" customWidth="1"/>
-    <col min="2564" max="2564" width="24.7109375" style="1" customWidth="1"/>
-    <col min="2565" max="2565" width="6" style="1" customWidth="1"/>
-    <col min="2566" max="2566" width="6.140625" style="1" customWidth="1"/>
-    <col min="2567" max="2567" width="5.5703125" style="1" customWidth="1"/>
-    <col min="2568" max="2568" width="4.85546875" style="1" customWidth="1"/>
-    <col min="2569" max="2569" width="4.140625" style="1" customWidth="1"/>
-    <col min="2570" max="2571" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="2572" max="2572" width="9.7109375" style="1" customWidth="1"/>
-    <col min="2573" max="2573" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2574" max="2574" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2575" max="2575" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2576" max="2576" width="6.5703125" style="1" customWidth="1"/>
-    <col min="2577" max="2577" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2578" max="2578" width="6.28515625" style="1" customWidth="1"/>
-    <col min="2579" max="2817" width="7.7109375" style="1"/>
-    <col min="2818" max="2818" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2819" max="2819" width="9.140625" style="1" customWidth="1"/>
-    <col min="2820" max="2820" width="24.7109375" style="1" customWidth="1"/>
-    <col min="2821" max="2821" width="6" style="1" customWidth="1"/>
-    <col min="2822" max="2822" width="6.140625" style="1" customWidth="1"/>
-    <col min="2823" max="2823" width="5.5703125" style="1" customWidth="1"/>
-    <col min="2824" max="2824" width="4.85546875" style="1" customWidth="1"/>
-    <col min="2825" max="2825" width="4.140625" style="1" customWidth="1"/>
-    <col min="2826" max="2827" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="2828" max="2828" width="9.7109375" style="1" customWidth="1"/>
-    <col min="2829" max="2829" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2830" max="2830" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2831" max="2831" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2832" max="2832" width="6.5703125" style="1" customWidth="1"/>
-    <col min="2833" max="2833" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2834" max="2834" width="6.28515625" style="1" customWidth="1"/>
-    <col min="2835" max="3073" width="7.7109375" style="1"/>
-    <col min="3074" max="3074" width="3.7109375" style="1" customWidth="1"/>
-    <col min="3075" max="3075" width="9.140625" style="1" customWidth="1"/>
-    <col min="3076" max="3076" width="24.7109375" style="1" customWidth="1"/>
-    <col min="3077" max="3077" width="6" style="1" customWidth="1"/>
-    <col min="3078" max="3078" width="6.140625" style="1" customWidth="1"/>
-    <col min="3079" max="3079" width="5.5703125" style="1" customWidth="1"/>
-    <col min="3080" max="3080" width="4.85546875" style="1" customWidth="1"/>
-    <col min="3081" max="3081" width="4.140625" style="1" customWidth="1"/>
-    <col min="3082" max="3083" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="3084" max="3084" width="9.7109375" style="1" customWidth="1"/>
-    <col min="3085" max="3085" width="3.7109375" style="1" customWidth="1"/>
-    <col min="3086" max="3086" width="2.42578125" style="1" customWidth="1"/>
-    <col min="3087" max="3087" width="3.7109375" style="1" customWidth="1"/>
-    <col min="3088" max="3088" width="6.5703125" style="1" customWidth="1"/>
-    <col min="3089" max="3089" width="2.42578125" style="1" customWidth="1"/>
-    <col min="3090" max="3090" width="6.28515625" style="1" customWidth="1"/>
-    <col min="3091" max="3329" width="7.7109375" style="1"/>
-    <col min="3330" max="3330" width="3.7109375" style="1" customWidth="1"/>
-    <col min="3331" max="3331" width="9.140625" style="1" customWidth="1"/>
-    <col min="3332" max="3332" width="24.7109375" style="1" customWidth="1"/>
-    <col min="3333" max="3333" width="6" style="1" customWidth="1"/>
-    <col min="3334" max="3334" width="6.140625" style="1" customWidth="1"/>
-    <col min="3335" max="3335" width="5.5703125" style="1" customWidth="1"/>
-    <col min="3336" max="3336" width="4.85546875" style="1" customWidth="1"/>
-    <col min="3337" max="3337" width="4.140625" style="1" customWidth="1"/>
-    <col min="3338" max="3339" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="3340" max="3340" width="9.7109375" style="1" customWidth="1"/>
-    <col min="3341" max="3341" width="3.7109375" style="1" customWidth="1"/>
-    <col min="3342" max="3342" width="2.42578125" style="1" customWidth="1"/>
-    <col min="3343" max="3343" width="3.7109375" style="1" customWidth="1"/>
-    <col min="3344" max="3344" width="6.5703125" style="1" customWidth="1"/>
-    <col min="3345" max="3345" width="2.42578125" style="1" customWidth="1"/>
-    <col min="3346" max="3346" width="6.28515625" style="1" customWidth="1"/>
-    <col min="3347" max="3585" width="7.7109375" style="1"/>
-    <col min="3586" max="3586" width="3.7109375" style="1" customWidth="1"/>
-    <col min="3587" max="3587" width="9.140625" style="1" customWidth="1"/>
-    <col min="3588" max="3588" width="24.7109375" style="1" customWidth="1"/>
-    <col min="3589" max="3589" width="6" style="1" customWidth="1"/>
-    <col min="3590" max="3590" width="6.140625" style="1" customWidth="1"/>
-    <col min="3591" max="3591" width="5.5703125" style="1" customWidth="1"/>
-    <col min="3592" max="3592" width="4.85546875" style="1" customWidth="1"/>
-    <col min="3593" max="3593" width="4.140625" style="1" customWidth="1"/>
-    <col min="3594" max="3595" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="3596" max="3596" width="9.7109375" style="1" customWidth="1"/>
-    <col min="3597" max="3597" width="3.7109375" style="1" customWidth="1"/>
-    <col min="3598" max="3598" width="2.42578125" style="1" customWidth="1"/>
-    <col min="3599" max="3599" width="3.7109375" style="1" customWidth="1"/>
-    <col min="3600" max="3600" width="6.5703125" style="1" customWidth="1"/>
-    <col min="3601" max="3601" width="2.42578125" style="1" customWidth="1"/>
-    <col min="3602" max="3602" width="6.28515625" style="1" customWidth="1"/>
-    <col min="3603" max="3841" width="7.7109375" style="1"/>
-    <col min="3842" max="3842" width="3.7109375" style="1" customWidth="1"/>
-    <col min="3843" max="3843" width="9.140625" style="1" customWidth="1"/>
-    <col min="3844" max="3844" width="24.7109375" style="1" customWidth="1"/>
-    <col min="3845" max="3845" width="6" style="1" customWidth="1"/>
-    <col min="3846" max="3846" width="6.140625" style="1" customWidth="1"/>
-    <col min="3847" max="3847" width="5.5703125" style="1" customWidth="1"/>
-    <col min="3848" max="3848" width="4.85546875" style="1" customWidth="1"/>
-    <col min="3849" max="3849" width="4.140625" style="1" customWidth="1"/>
-    <col min="3850" max="3851" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="3852" max="3852" width="9.7109375" style="1" customWidth="1"/>
-    <col min="3853" max="3853" width="3.7109375" style="1" customWidth="1"/>
-    <col min="3854" max="3854" width="2.42578125" style="1" customWidth="1"/>
-    <col min="3855" max="3855" width="3.7109375" style="1" customWidth="1"/>
-    <col min="3856" max="3856" width="6.5703125" style="1" customWidth="1"/>
-    <col min="3857" max="3857" width="2.42578125" style="1" customWidth="1"/>
-    <col min="3858" max="3858" width="6.28515625" style="1" customWidth="1"/>
-    <col min="3859" max="4097" width="7.7109375" style="1"/>
-    <col min="4098" max="4098" width="3.7109375" style="1" customWidth="1"/>
-    <col min="4099" max="4099" width="9.140625" style="1" customWidth="1"/>
-    <col min="4100" max="4100" width="24.7109375" style="1" customWidth="1"/>
-    <col min="4101" max="4101" width="6" style="1" customWidth="1"/>
-    <col min="4102" max="4102" width="6.140625" style="1" customWidth="1"/>
-    <col min="4103" max="4103" width="5.5703125" style="1" customWidth="1"/>
-    <col min="4104" max="4104" width="4.85546875" style="1" customWidth="1"/>
-    <col min="4105" max="4105" width="4.140625" style="1" customWidth="1"/>
-    <col min="4106" max="4107" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="4108" max="4108" width="9.7109375" style="1" customWidth="1"/>
-    <col min="4109" max="4109" width="3.7109375" style="1" customWidth="1"/>
-    <col min="4110" max="4110" width="2.42578125" style="1" customWidth="1"/>
-    <col min="4111" max="4111" width="3.7109375" style="1" customWidth="1"/>
-    <col min="4112" max="4112" width="6.5703125" style="1" customWidth="1"/>
-    <col min="4113" max="4113" width="2.42578125" style="1" customWidth="1"/>
-    <col min="4114" max="4114" width="6.28515625" style="1" customWidth="1"/>
-    <col min="4115" max="4353" width="7.7109375" style="1"/>
-    <col min="4354" max="4354" width="3.7109375" style="1" customWidth="1"/>
-    <col min="4355" max="4355" width="9.140625" style="1" customWidth="1"/>
-    <col min="4356" max="4356" width="24.7109375" style="1" customWidth="1"/>
-    <col min="4357" max="4357" width="6" style="1" customWidth="1"/>
-    <col min="4358" max="4358" width="6.140625" style="1" customWidth="1"/>
-    <col min="4359" max="4359" width="5.5703125" style="1" customWidth="1"/>
-    <col min="4360" max="4360" width="4.85546875" style="1" customWidth="1"/>
-    <col min="4361" max="4361" width="4.140625" style="1" customWidth="1"/>
-    <col min="4362" max="4363" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="4364" max="4364" width="9.7109375" style="1" customWidth="1"/>
-    <col min="4365" max="4365" width="3.7109375" style="1" customWidth="1"/>
-    <col min="4366" max="4366" width="2.42578125" style="1" customWidth="1"/>
-    <col min="4367" max="4367" width="3.7109375" style="1" customWidth="1"/>
-    <col min="4368" max="4368" width="6.5703125" style="1" customWidth="1"/>
-    <col min="4369" max="4369" width="2.42578125" style="1" customWidth="1"/>
-    <col min="4370" max="4370" width="6.28515625" style="1" customWidth="1"/>
-    <col min="4371" max="4609" width="7.7109375" style="1"/>
-    <col min="4610" max="4610" width="3.7109375" style="1" customWidth="1"/>
-    <col min="4611" max="4611" width="9.140625" style="1" customWidth="1"/>
-    <col min="4612" max="4612" width="24.7109375" style="1" customWidth="1"/>
-    <col min="4613" max="4613" width="6" style="1" customWidth="1"/>
-    <col min="4614" max="4614" width="6.140625" style="1" customWidth="1"/>
-    <col min="4615" max="4615" width="5.5703125" style="1" customWidth="1"/>
-    <col min="4616" max="4616" width="4.85546875" style="1" customWidth="1"/>
-    <col min="4617" max="4617" width="4.140625" style="1" customWidth="1"/>
-    <col min="4618" max="4619" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="4620" max="4620" width="9.7109375" style="1" customWidth="1"/>
-    <col min="4621" max="4621" width="3.7109375" style="1" customWidth="1"/>
-    <col min="4622" max="4622" width="2.42578125" style="1" customWidth="1"/>
-    <col min="4623" max="4623" width="3.7109375" style="1" customWidth="1"/>
-    <col min="4624" max="4624" width="6.5703125" style="1" customWidth="1"/>
-    <col min="4625" max="4625" width="2.42578125" style="1" customWidth="1"/>
-    <col min="4626" max="4626" width="6.28515625" style="1" customWidth="1"/>
-    <col min="4627" max="4865" width="7.7109375" style="1"/>
-    <col min="4866" max="4866" width="3.7109375" style="1" customWidth="1"/>
-    <col min="4867" max="4867" width="9.140625" style="1" customWidth="1"/>
-    <col min="4868" max="4868" width="24.7109375" style="1" customWidth="1"/>
-    <col min="4869" max="4869" width="6" style="1" customWidth="1"/>
-    <col min="4870" max="4870" width="6.140625" style="1" customWidth="1"/>
-    <col min="4871" max="4871" width="5.5703125" style="1" customWidth="1"/>
-    <col min="4872" max="4872" width="4.85546875" style="1" customWidth="1"/>
-    <col min="4873" max="4873" width="4.140625" style="1" customWidth="1"/>
-    <col min="4874" max="4875" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="4876" max="4876" width="9.7109375" style="1" customWidth="1"/>
-    <col min="4877" max="4877" width="3.7109375" style="1" customWidth="1"/>
-    <col min="4878" max="4878" width="2.42578125" style="1" customWidth="1"/>
-    <col min="4879" max="4879" width="3.7109375" style="1" customWidth="1"/>
-    <col min="4880" max="4880" width="6.5703125" style="1" customWidth="1"/>
-    <col min="4881" max="4881" width="2.42578125" style="1" customWidth="1"/>
-    <col min="4882" max="4882" width="6.28515625" style="1" customWidth="1"/>
-    <col min="4883" max="5121" width="7.7109375" style="1"/>
-    <col min="5122" max="5122" width="3.7109375" style="1" customWidth="1"/>
-    <col min="5123" max="5123" width="9.140625" style="1" customWidth="1"/>
-    <col min="5124" max="5124" width="24.7109375" style="1" customWidth="1"/>
-    <col min="5125" max="5125" width="6" style="1" customWidth="1"/>
-    <col min="5126" max="5126" width="6.140625" style="1" customWidth="1"/>
-    <col min="5127" max="5127" width="5.5703125" style="1" customWidth="1"/>
-    <col min="5128" max="5128" width="4.85546875" style="1" customWidth="1"/>
-    <col min="5129" max="5129" width="4.140625" style="1" customWidth="1"/>
-    <col min="5130" max="5131" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="5132" max="5132" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5133" max="5133" width="3.7109375" style="1" customWidth="1"/>
-    <col min="5134" max="5134" width="2.42578125" style="1" customWidth="1"/>
-    <col min="5135" max="5135" width="3.7109375" style="1" customWidth="1"/>
-    <col min="5136" max="5136" width="6.5703125" style="1" customWidth="1"/>
-    <col min="5137" max="5137" width="2.42578125" style="1" customWidth="1"/>
-    <col min="5138" max="5138" width="6.28515625" style="1" customWidth="1"/>
-    <col min="5139" max="5377" width="7.7109375" style="1"/>
-    <col min="5378" max="5378" width="3.7109375" style="1" customWidth="1"/>
-    <col min="5379" max="5379" width="9.140625" style="1" customWidth="1"/>
-    <col min="5380" max="5380" width="24.7109375" style="1" customWidth="1"/>
-    <col min="5381" max="5381" width="6" style="1" customWidth="1"/>
-    <col min="5382" max="5382" width="6.140625" style="1" customWidth="1"/>
-    <col min="5383" max="5383" width="5.5703125" style="1" customWidth="1"/>
-    <col min="5384" max="5384" width="4.85546875" style="1" customWidth="1"/>
-    <col min="5385" max="5385" width="4.140625" style="1" customWidth="1"/>
-    <col min="5386" max="5387" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="5388" max="5388" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5389" max="5389" width="3.7109375" style="1" customWidth="1"/>
-    <col min="5390" max="5390" width="2.42578125" style="1" customWidth="1"/>
-    <col min="5391" max="5391" width="3.7109375" style="1" customWidth="1"/>
-    <col min="5392" max="5392" width="6.5703125" style="1" customWidth="1"/>
-    <col min="5393" max="5393" width="2.42578125" style="1" customWidth="1"/>
-    <col min="5394" max="5394" width="6.28515625" style="1" customWidth="1"/>
-    <col min="5395" max="5633" width="7.7109375" style="1"/>
-    <col min="5634" max="5634" width="3.7109375" style="1" customWidth="1"/>
-    <col min="5635" max="5635" width="9.140625" style="1" customWidth="1"/>
-    <col min="5636" max="5636" width="24.7109375" style="1" customWidth="1"/>
-    <col min="5637" max="5637" width="6" style="1" customWidth="1"/>
-    <col min="5638" max="5638" width="6.140625" style="1" customWidth="1"/>
-    <col min="5639" max="5639" width="5.5703125" style="1" customWidth="1"/>
-    <col min="5640" max="5640" width="4.85546875" style="1" customWidth="1"/>
-    <col min="5641" max="5641" width="4.140625" style="1" customWidth="1"/>
-    <col min="5642" max="5643" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="5644" max="5644" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5645" max="5645" width="3.7109375" style="1" customWidth="1"/>
-    <col min="5646" max="5646" width="2.42578125" style="1" customWidth="1"/>
-    <col min="5647" max="5647" width="3.7109375" style="1" customWidth="1"/>
-    <col min="5648" max="5648" width="6.5703125" style="1" customWidth="1"/>
-    <col min="5649" max="5649" width="2.42578125" style="1" customWidth="1"/>
-    <col min="5650" max="5650" width="6.28515625" style="1" customWidth="1"/>
-    <col min="5651" max="5889" width="7.7109375" style="1"/>
-    <col min="5890" max="5890" width="3.7109375" style="1" customWidth="1"/>
-    <col min="5891" max="5891" width="9.140625" style="1" customWidth="1"/>
-    <col min="5892" max="5892" width="24.7109375" style="1" customWidth="1"/>
-    <col min="5893" max="5893" width="6" style="1" customWidth="1"/>
-    <col min="5894" max="5894" width="6.140625" style="1" customWidth="1"/>
-    <col min="5895" max="5895" width="5.5703125" style="1" customWidth="1"/>
-    <col min="5896" max="5896" width="4.85546875" style="1" customWidth="1"/>
-    <col min="5897" max="5897" width="4.140625" style="1" customWidth="1"/>
-    <col min="5898" max="5899" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="5900" max="5900" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5901" max="5901" width="3.7109375" style="1" customWidth="1"/>
-    <col min="5902" max="5902" width="2.42578125" style="1" customWidth="1"/>
-    <col min="5903" max="5903" width="3.7109375" style="1" customWidth="1"/>
-    <col min="5904" max="5904" width="6.5703125" style="1" customWidth="1"/>
-    <col min="5905" max="5905" width="2.42578125" style="1" customWidth="1"/>
-    <col min="5906" max="5906" width="6.28515625" style="1" customWidth="1"/>
-    <col min="5907" max="6145" width="7.7109375" style="1"/>
-    <col min="6146" max="6146" width="3.7109375" style="1" customWidth="1"/>
-    <col min="6147" max="6147" width="9.140625" style="1" customWidth="1"/>
-    <col min="6148" max="6148" width="24.7109375" style="1" customWidth="1"/>
-    <col min="6149" max="6149" width="6" style="1" customWidth="1"/>
-    <col min="6150" max="6150" width="6.140625" style="1" customWidth="1"/>
-    <col min="6151" max="6151" width="5.5703125" style="1" customWidth="1"/>
-    <col min="6152" max="6152" width="4.85546875" style="1" customWidth="1"/>
-    <col min="6153" max="6153" width="4.140625" style="1" customWidth="1"/>
-    <col min="6154" max="6155" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="6156" max="6156" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6157" max="6157" width="3.7109375" style="1" customWidth="1"/>
-    <col min="6158" max="6158" width="2.42578125" style="1" customWidth="1"/>
-    <col min="6159" max="6159" width="3.7109375" style="1" customWidth="1"/>
-    <col min="6160" max="6160" width="6.5703125" style="1" customWidth="1"/>
-    <col min="6161" max="6161" width="2.42578125" style="1" customWidth="1"/>
-    <col min="6162" max="6162" width="6.28515625" style="1" customWidth="1"/>
-    <col min="6163" max="6401" width="7.7109375" style="1"/>
-    <col min="6402" max="6402" width="3.7109375" style="1" customWidth="1"/>
-    <col min="6403" max="6403" width="9.140625" style="1" customWidth="1"/>
-    <col min="6404" max="6404" width="24.7109375" style="1" customWidth="1"/>
-    <col min="6405" max="6405" width="6" style="1" customWidth="1"/>
-    <col min="6406" max="6406" width="6.140625" style="1" customWidth="1"/>
-    <col min="6407" max="6407" width="5.5703125" style="1" customWidth="1"/>
-    <col min="6408" max="6408" width="4.85546875" style="1" customWidth="1"/>
-    <col min="6409" max="6409" width="4.140625" style="1" customWidth="1"/>
-    <col min="6410" max="6411" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="6412" max="6412" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6413" max="6413" width="3.7109375" style="1" customWidth="1"/>
-    <col min="6414" max="6414" width="2.42578125" style="1" customWidth="1"/>
-    <col min="6415" max="6415" width="3.7109375" style="1" customWidth="1"/>
-    <col min="6416" max="6416" width="6.5703125" style="1" customWidth="1"/>
-    <col min="6417" max="6417" width="2.42578125" style="1" customWidth="1"/>
-    <col min="6418" max="6418" width="6.28515625" style="1" customWidth="1"/>
-    <col min="6419" max="6657" width="7.7109375" style="1"/>
-    <col min="6658" max="6658" width="3.7109375" style="1" customWidth="1"/>
-    <col min="6659" max="6659" width="9.140625" style="1" customWidth="1"/>
-    <col min="6660" max="6660" width="24.7109375" style="1" customWidth="1"/>
-    <col min="6661" max="6661" width="6" style="1" customWidth="1"/>
-    <col min="6662" max="6662" width="6.140625" style="1" customWidth="1"/>
-    <col min="6663" max="6663" width="5.5703125" style="1" customWidth="1"/>
-    <col min="6664" max="6664" width="4.85546875" style="1" customWidth="1"/>
-    <col min="6665" max="6665" width="4.140625" style="1" customWidth="1"/>
-    <col min="6666" max="6667" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="6668" max="6668" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6669" max="6669" width="3.7109375" style="1" customWidth="1"/>
-    <col min="6670" max="6670" width="2.42578125" style="1" customWidth="1"/>
-    <col min="6671" max="6671" width="3.7109375" style="1" customWidth="1"/>
-    <col min="6672" max="6672" width="6.5703125" style="1" customWidth="1"/>
-    <col min="6673" max="6673" width="2.42578125" style="1" customWidth="1"/>
-    <col min="6674" max="6674" width="6.28515625" style="1" customWidth="1"/>
-    <col min="6675" max="6913" width="7.7109375" style="1"/>
-    <col min="6914" max="6914" width="3.7109375" style="1" customWidth="1"/>
-    <col min="6915" max="6915" width="9.140625" style="1" customWidth="1"/>
-    <col min="6916" max="6916" width="24.7109375" style="1" customWidth="1"/>
-    <col min="6917" max="6917" width="6" style="1" customWidth="1"/>
-    <col min="6918" max="6918" width="6.140625" style="1" customWidth="1"/>
-    <col min="6919" max="6919" width="5.5703125" style="1" customWidth="1"/>
-    <col min="6920" max="6920" width="4.85546875" style="1" customWidth="1"/>
-    <col min="6921" max="6921" width="4.140625" style="1" customWidth="1"/>
-    <col min="6922" max="6923" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="6924" max="6924" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6925" max="6925" width="3.7109375" style="1" customWidth="1"/>
-    <col min="6926" max="6926" width="2.42578125" style="1" customWidth="1"/>
-    <col min="6927" max="6927" width="3.7109375" style="1" customWidth="1"/>
-    <col min="6928" max="6928" width="6.5703125" style="1" customWidth="1"/>
-    <col min="6929" max="6929" width="2.42578125" style="1" customWidth="1"/>
-    <col min="6930" max="6930" width="6.28515625" style="1" customWidth="1"/>
-    <col min="6931" max="7169" width="7.7109375" style="1"/>
-    <col min="7170" max="7170" width="3.7109375" style="1" customWidth="1"/>
-    <col min="7171" max="7171" width="9.140625" style="1" customWidth="1"/>
-    <col min="7172" max="7172" width="24.7109375" style="1" customWidth="1"/>
-    <col min="7173" max="7173" width="6" style="1" customWidth="1"/>
-    <col min="7174" max="7174" width="6.140625" style="1" customWidth="1"/>
-    <col min="7175" max="7175" width="5.5703125" style="1" customWidth="1"/>
-    <col min="7176" max="7176" width="4.85546875" style="1" customWidth="1"/>
-    <col min="7177" max="7177" width="4.140625" style="1" customWidth="1"/>
-    <col min="7178" max="7179" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="7180" max="7180" width="9.7109375" style="1" customWidth="1"/>
-    <col min="7181" max="7181" width="3.7109375" style="1" customWidth="1"/>
-    <col min="7182" max="7182" width="2.42578125" style="1" customWidth="1"/>
-    <col min="7183" max="7183" width="3.7109375" style="1" customWidth="1"/>
-    <col min="7184" max="7184" width="6.5703125" style="1" customWidth="1"/>
-    <col min="7185" max="7185" width="2.42578125" style="1" customWidth="1"/>
-    <col min="7186" max="7186" width="6.28515625" style="1" customWidth="1"/>
-    <col min="7187" max="7425" width="7.7109375" style="1"/>
-    <col min="7426" max="7426" width="3.7109375" style="1" customWidth="1"/>
-    <col min="7427" max="7427" width="9.140625" style="1" customWidth="1"/>
-    <col min="7428" max="7428" width="24.7109375" style="1" customWidth="1"/>
-    <col min="7429" max="7429" width="6" style="1" customWidth="1"/>
-    <col min="7430" max="7430" width="6.140625" style="1" customWidth="1"/>
-    <col min="7431" max="7431" width="5.5703125" style="1" customWidth="1"/>
-    <col min="7432" max="7432" width="4.85546875" style="1" customWidth="1"/>
-    <col min="7433" max="7433" width="4.140625" style="1" customWidth="1"/>
-    <col min="7434" max="7435" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="7436" max="7436" width="9.7109375" style="1" customWidth="1"/>
-    <col min="7437" max="7437" width="3.7109375" style="1" customWidth="1"/>
-    <col min="7438" max="7438" width="2.42578125" style="1" customWidth="1"/>
-    <col min="7439" max="7439" width="3.7109375" style="1" customWidth="1"/>
-    <col min="7440" max="7440" width="6.5703125" style="1" customWidth="1"/>
-    <col min="7441" max="7441" width="2.42578125" style="1" customWidth="1"/>
-    <col min="7442" max="7442" width="6.28515625" style="1" customWidth="1"/>
-    <col min="7443" max="7681" width="7.7109375" style="1"/>
-    <col min="7682" max="7682" width="3.7109375" style="1" customWidth="1"/>
-    <col min="7683" max="7683" width="9.140625" style="1" customWidth="1"/>
-    <col min="7684" max="7684" width="24.7109375" style="1" customWidth="1"/>
-    <col min="7685" max="7685" width="6" style="1" customWidth="1"/>
-    <col min="7686" max="7686" width="6.140625" style="1" customWidth="1"/>
-    <col min="7687" max="7687" width="5.5703125" style="1" customWidth="1"/>
-    <col min="7688" max="7688" width="4.85546875" style="1" customWidth="1"/>
-    <col min="7689" max="7689" width="4.140625" style="1" customWidth="1"/>
-    <col min="7690" max="7691" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="7692" max="7692" width="9.7109375" style="1" customWidth="1"/>
-    <col min="7693" max="7693" width="3.7109375" style="1" customWidth="1"/>
-    <col min="7694" max="7694" width="2.42578125" style="1" customWidth="1"/>
-    <col min="7695" max="7695" width="3.7109375" style="1" customWidth="1"/>
-    <col min="7696" max="7696" width="6.5703125" style="1" customWidth="1"/>
-    <col min="7697" max="7697" width="2.42578125" style="1" customWidth="1"/>
-    <col min="7698" max="7698" width="6.28515625" style="1" customWidth="1"/>
-    <col min="7699" max="7937" width="7.7109375" style="1"/>
-    <col min="7938" max="7938" width="3.7109375" style="1" customWidth="1"/>
-    <col min="7939" max="7939" width="9.140625" style="1" customWidth="1"/>
-    <col min="7940" max="7940" width="24.7109375" style="1" customWidth="1"/>
-    <col min="7941" max="7941" width="6" style="1" customWidth="1"/>
-    <col min="7942" max="7942" width="6.140625" style="1" customWidth="1"/>
-    <col min="7943" max="7943" width="5.5703125" style="1" customWidth="1"/>
-    <col min="7944" max="7944" width="4.85546875" style="1" customWidth="1"/>
-    <col min="7945" max="7945" width="4.140625" style="1" customWidth="1"/>
-    <col min="7946" max="7947" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="7948" max="7948" width="9.7109375" style="1" customWidth="1"/>
-    <col min="7949" max="7949" width="3.7109375" style="1" customWidth="1"/>
-    <col min="7950" max="7950" width="2.42578125" style="1" customWidth="1"/>
-    <col min="7951" max="7951" width="3.7109375" style="1" customWidth="1"/>
-    <col min="7952" max="7952" width="6.5703125" style="1" customWidth="1"/>
-    <col min="7953" max="7953" width="2.42578125" style="1" customWidth="1"/>
-    <col min="7954" max="7954" width="6.28515625" style="1" customWidth="1"/>
-    <col min="7955" max="8193" width="7.7109375" style="1"/>
-    <col min="8194" max="8194" width="3.7109375" style="1" customWidth="1"/>
-    <col min="8195" max="8195" width="9.140625" style="1" customWidth="1"/>
-    <col min="8196" max="8196" width="24.7109375" style="1" customWidth="1"/>
-    <col min="8197" max="8197" width="6" style="1" customWidth="1"/>
-    <col min="8198" max="8198" width="6.140625" style="1" customWidth="1"/>
-    <col min="8199" max="8199" width="5.5703125" style="1" customWidth="1"/>
-    <col min="8200" max="8200" width="4.85546875" style="1" customWidth="1"/>
-    <col min="8201" max="8201" width="4.140625" style="1" customWidth="1"/>
-    <col min="8202" max="8203" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="8204" max="8204" width="9.7109375" style="1" customWidth="1"/>
-    <col min="8205" max="8205" width="3.7109375" style="1" customWidth="1"/>
-    <col min="8206" max="8206" width="2.42578125" style="1" customWidth="1"/>
-    <col min="8207" max="8207" width="3.7109375" style="1" customWidth="1"/>
-    <col min="8208" max="8208" width="6.5703125" style="1" customWidth="1"/>
-    <col min="8209" max="8209" width="2.42578125" style="1" customWidth="1"/>
-    <col min="8210" max="8210" width="6.28515625" style="1" customWidth="1"/>
-    <col min="8211" max="8449" width="7.7109375" style="1"/>
-    <col min="8450" max="8450" width="3.7109375" style="1" customWidth="1"/>
-    <col min="8451" max="8451" width="9.140625" style="1" customWidth="1"/>
-    <col min="8452" max="8452" width="24.7109375" style="1" customWidth="1"/>
-    <col min="8453" max="8453" width="6" style="1" customWidth="1"/>
-    <col min="8454" max="8454" width="6.140625" style="1" customWidth="1"/>
-    <col min="8455" max="8455" width="5.5703125" style="1" customWidth="1"/>
-    <col min="8456" max="8456" width="4.85546875" style="1" customWidth="1"/>
-    <col min="8457" max="8457" width="4.140625" style="1" customWidth="1"/>
-    <col min="8458" max="8459" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="8460" max="8460" width="9.7109375" style="1" customWidth="1"/>
-    <col min="8461" max="8461" width="3.7109375" style="1" customWidth="1"/>
-    <col min="8462" max="8462" width="2.42578125" style="1" customWidth="1"/>
-    <col min="8463" max="8463" width="3.7109375" style="1" customWidth="1"/>
-    <col min="8464" max="8464" width="6.5703125" style="1" customWidth="1"/>
-    <col min="8465" max="8465" width="2.42578125" style="1" customWidth="1"/>
-    <col min="8466" max="8466" width="6.28515625" style="1" customWidth="1"/>
-    <col min="8467" max="8705" width="7.7109375" style="1"/>
-    <col min="8706" max="8706" width="3.7109375" style="1" customWidth="1"/>
-    <col min="8707" max="8707" width="9.140625" style="1" customWidth="1"/>
-    <col min="8708" max="8708" width="24.7109375" style="1" customWidth="1"/>
-    <col min="8709" max="8709" width="6" style="1" customWidth="1"/>
-    <col min="8710" max="8710" width="6.140625" style="1" customWidth="1"/>
-    <col min="8711" max="8711" width="5.5703125" style="1" customWidth="1"/>
-    <col min="8712" max="8712" width="4.85546875" style="1" customWidth="1"/>
-    <col min="8713" max="8713" width="4.140625" style="1" customWidth="1"/>
-    <col min="8714" max="8715" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="8716" max="8716" width="9.7109375" style="1" customWidth="1"/>
-    <col min="8717" max="8717" width="3.7109375" style="1" customWidth="1"/>
-    <col min="8718" max="8718" width="2.42578125" style="1" customWidth="1"/>
-    <col min="8719" max="8719" width="3.7109375" style="1" customWidth="1"/>
-    <col min="8720" max="8720" width="6.5703125" style="1" customWidth="1"/>
-    <col min="8721" max="8721" width="2.42578125" style="1" customWidth="1"/>
-    <col min="8722" max="8722" width="6.28515625" style="1" customWidth="1"/>
-    <col min="8723" max="8961" width="7.7109375" style="1"/>
-    <col min="8962" max="8962" width="3.7109375" style="1" customWidth="1"/>
-    <col min="8963" max="8963" width="9.140625" style="1" customWidth="1"/>
-    <col min="8964" max="8964" width="24.7109375" style="1" customWidth="1"/>
-    <col min="8965" max="8965" width="6" style="1" customWidth="1"/>
-    <col min="8966" max="8966" width="6.140625" style="1" customWidth="1"/>
-    <col min="8967" max="8967" width="5.5703125" style="1" customWidth="1"/>
-    <col min="8968" max="8968" width="4.85546875" style="1" customWidth="1"/>
-    <col min="8969" max="8969" width="4.140625" style="1" customWidth="1"/>
-    <col min="8970" max="8971" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="8972" max="8972" width="9.7109375" style="1" customWidth="1"/>
-    <col min="8973" max="8973" width="3.7109375" style="1" customWidth="1"/>
-    <col min="8974" max="8974" width="2.42578125" style="1" customWidth="1"/>
-    <col min="8975" max="8975" width="3.7109375" style="1" customWidth="1"/>
-    <col min="8976" max="8976" width="6.5703125" style="1" customWidth="1"/>
-    <col min="8977" max="8977" width="2.42578125" style="1" customWidth="1"/>
-    <col min="8978" max="8978" width="6.28515625" style="1" customWidth="1"/>
-    <col min="8979" max="9217" width="7.7109375" style="1"/>
-    <col min="9218" max="9218" width="3.7109375" style="1" customWidth="1"/>
-    <col min="9219" max="9219" width="9.140625" style="1" customWidth="1"/>
-    <col min="9220" max="9220" width="24.7109375" style="1" customWidth="1"/>
-    <col min="9221" max="9221" width="6" style="1" customWidth="1"/>
-    <col min="9222" max="9222" width="6.140625" style="1" customWidth="1"/>
-    <col min="9223" max="9223" width="5.5703125" style="1" customWidth="1"/>
-    <col min="9224" max="9224" width="4.85546875" style="1" customWidth="1"/>
-    <col min="9225" max="9225" width="4.140625" style="1" customWidth="1"/>
-    <col min="9226" max="9227" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="9228" max="9228" width="9.7109375" style="1" customWidth="1"/>
-    <col min="9229" max="9229" width="3.7109375" style="1" customWidth="1"/>
-    <col min="9230" max="9230" width="2.42578125" style="1" customWidth="1"/>
-    <col min="9231" max="9231" width="3.7109375" style="1" customWidth="1"/>
-    <col min="9232" max="9232" width="6.5703125" style="1" customWidth="1"/>
-    <col min="9233" max="9233" width="2.42578125" style="1" customWidth="1"/>
-    <col min="9234" max="9234" width="6.28515625" style="1" customWidth="1"/>
-    <col min="9235" max="9473" width="7.7109375" style="1"/>
-    <col min="9474" max="9474" width="3.7109375" style="1" customWidth="1"/>
-    <col min="9475" max="9475" width="9.140625" style="1" customWidth="1"/>
-    <col min="9476" max="9476" width="24.7109375" style="1" customWidth="1"/>
-    <col min="9477" max="9477" width="6" style="1" customWidth="1"/>
-    <col min="9478" max="9478" width="6.140625" style="1" customWidth="1"/>
-    <col min="9479" max="9479" width="5.5703125" style="1" customWidth="1"/>
-    <col min="9480" max="9480" width="4.85546875" style="1" customWidth="1"/>
-    <col min="9481" max="9481" width="4.140625" style="1" customWidth="1"/>
-    <col min="9482" max="9483" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="9484" max="9484" width="9.7109375" style="1" customWidth="1"/>
-    <col min="9485" max="9485" width="3.7109375" style="1" customWidth="1"/>
-    <col min="9486" max="9486" width="2.42578125" style="1" customWidth="1"/>
-    <col min="9487" max="9487" width="3.7109375" style="1" customWidth="1"/>
-    <col min="9488" max="9488" width="6.5703125" style="1" customWidth="1"/>
-    <col min="9489" max="9489" width="2.42578125" style="1" customWidth="1"/>
-    <col min="9490" max="9490" width="6.28515625" style="1" customWidth="1"/>
-    <col min="9491" max="9729" width="7.7109375" style="1"/>
-    <col min="9730" max="9730" width="3.7109375" style="1" customWidth="1"/>
-    <col min="9731" max="9731" width="9.140625" style="1" customWidth="1"/>
-    <col min="9732" max="9732" width="24.7109375" style="1" customWidth="1"/>
-    <col min="9733" max="9733" width="6" style="1" customWidth="1"/>
-    <col min="9734" max="9734" width="6.140625" style="1" customWidth="1"/>
-    <col min="9735" max="9735" width="5.5703125" style="1" customWidth="1"/>
-    <col min="9736" max="9736" width="4.85546875" style="1" customWidth="1"/>
-    <col min="9737" max="9737" width="4.140625" style="1" customWidth="1"/>
-    <col min="9738" max="9739" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="9740" max="9740" width="9.7109375" style="1" customWidth="1"/>
-    <col min="9741" max="9741" width="3.7109375" style="1" customWidth="1"/>
-    <col min="9742" max="9742" width="2.42578125" style="1" customWidth="1"/>
-    <col min="9743" max="9743" width="3.7109375" style="1" customWidth="1"/>
-    <col min="9744" max="9744" width="6.5703125" style="1" customWidth="1"/>
-    <col min="9745" max="9745" width="2.42578125" style="1" customWidth="1"/>
-    <col min="9746" max="9746" width="6.28515625" style="1" customWidth="1"/>
-    <col min="9747" max="9985" width="7.7109375" style="1"/>
-    <col min="9986" max="9986" width="3.7109375" style="1" customWidth="1"/>
-    <col min="9987" max="9987" width="9.140625" style="1" customWidth="1"/>
-    <col min="9988" max="9988" width="24.7109375" style="1" customWidth="1"/>
-    <col min="9989" max="9989" width="6" style="1" customWidth="1"/>
-    <col min="9990" max="9990" width="6.140625" style="1" customWidth="1"/>
-    <col min="9991" max="9991" width="5.5703125" style="1" customWidth="1"/>
-    <col min="9992" max="9992" width="4.85546875" style="1" customWidth="1"/>
-    <col min="9993" max="9993" width="4.140625" style="1" customWidth="1"/>
-    <col min="9994" max="9995" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="9996" max="9996" width="9.7109375" style="1" customWidth="1"/>
-    <col min="9997" max="9997" width="3.7109375" style="1" customWidth="1"/>
-    <col min="9998" max="9998" width="2.42578125" style="1" customWidth="1"/>
-    <col min="9999" max="9999" width="3.7109375" style="1" customWidth="1"/>
-    <col min="10000" max="10000" width="6.5703125" style="1" customWidth="1"/>
-    <col min="10001" max="10001" width="2.42578125" style="1" customWidth="1"/>
-    <col min="10002" max="10002" width="6.28515625" style="1" customWidth="1"/>
-    <col min="10003" max="10241" width="7.7109375" style="1"/>
-    <col min="10242" max="10242" width="3.7109375" style="1" customWidth="1"/>
-    <col min="10243" max="10243" width="9.140625" style="1" customWidth="1"/>
-    <col min="10244" max="10244" width="24.7109375" style="1" customWidth="1"/>
-    <col min="10245" max="10245" width="6" style="1" customWidth="1"/>
-    <col min="10246" max="10246" width="6.140625" style="1" customWidth="1"/>
-    <col min="10247" max="10247" width="5.5703125" style="1" customWidth="1"/>
-    <col min="10248" max="10248" width="4.85546875" style="1" customWidth="1"/>
-    <col min="10249" max="10249" width="4.140625" style="1" customWidth="1"/>
-    <col min="10250" max="10251" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="10252" max="10252" width="9.7109375" style="1" customWidth="1"/>
-    <col min="10253" max="10253" width="3.7109375" style="1" customWidth="1"/>
-    <col min="10254" max="10254" width="2.42578125" style="1" customWidth="1"/>
-    <col min="10255" max="10255" width="3.7109375" style="1" customWidth="1"/>
-    <col min="10256" max="10256" width="6.5703125" style="1" customWidth="1"/>
-    <col min="10257" max="10257" width="2.42578125" style="1" customWidth="1"/>
-    <col min="10258" max="10258" width="6.28515625" style="1" customWidth="1"/>
-    <col min="10259" max="10497" width="7.7109375" style="1"/>
-    <col min="10498" max="10498" width="3.7109375" style="1" customWidth="1"/>
-    <col min="10499" max="10499" width="9.140625" style="1" customWidth="1"/>
-    <col min="10500" max="10500" width="24.7109375" style="1" customWidth="1"/>
-    <col min="10501" max="10501" width="6" style="1" customWidth="1"/>
-    <col min="10502" max="10502" width="6.140625" style="1" customWidth="1"/>
-    <col min="10503" max="10503" width="5.5703125" style="1" customWidth="1"/>
-    <col min="10504" max="10504" width="4.85546875" style="1" customWidth="1"/>
-    <col min="10505" max="10505" width="4.140625" style="1" customWidth="1"/>
-    <col min="10506" max="10507" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="10508" max="10508" width="9.7109375" style="1" customWidth="1"/>
-    <col min="10509" max="10509" width="3.7109375" style="1" customWidth="1"/>
-    <col min="10510" max="10510" width="2.42578125" style="1" customWidth="1"/>
-    <col min="10511" max="10511" width="3.7109375" style="1" customWidth="1"/>
-    <col min="10512" max="10512" width="6.5703125" style="1" customWidth="1"/>
-    <col min="10513" max="10513" width="2.42578125" style="1" customWidth="1"/>
-    <col min="10514" max="10514" width="6.28515625" style="1" customWidth="1"/>
-    <col min="10515" max="10753" width="7.7109375" style="1"/>
-    <col min="10754" max="10754" width="3.7109375" style="1" customWidth="1"/>
-    <col min="10755" max="10755" width="9.140625" style="1" customWidth="1"/>
-    <col min="10756" max="10756" width="24.7109375" style="1" customWidth="1"/>
-    <col min="10757" max="10757" width="6" style="1" customWidth="1"/>
-    <col min="10758" max="10758" width="6.140625" style="1" customWidth="1"/>
-    <col min="10759" max="10759" width="5.5703125" style="1" customWidth="1"/>
-    <col min="10760" max="10760" width="4.85546875" style="1" customWidth="1"/>
-    <col min="10761" max="10761" width="4.140625" style="1" customWidth="1"/>
-    <col min="10762" max="10763" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="10764" max="10764" width="9.7109375" style="1" customWidth="1"/>
-    <col min="10765" max="10765" width="3.7109375" style="1" customWidth="1"/>
-    <col min="10766" max="10766" width="2.42578125" style="1" customWidth="1"/>
-    <col min="10767" max="10767" width="3.7109375" style="1" customWidth="1"/>
-    <col min="10768" max="10768" width="6.5703125" style="1" customWidth="1"/>
-    <col min="10769" max="10769" width="2.42578125" style="1" customWidth="1"/>
-    <col min="10770" max="10770" width="6.28515625" style="1" customWidth="1"/>
-    <col min="10771" max="11009" width="7.7109375" style="1"/>
-    <col min="11010" max="11010" width="3.7109375" style="1" customWidth="1"/>
-    <col min="11011" max="11011" width="9.140625" style="1" customWidth="1"/>
-    <col min="11012" max="11012" width="24.7109375" style="1" customWidth="1"/>
-    <col min="11013" max="11013" width="6" style="1" customWidth="1"/>
-    <col min="11014" max="11014" width="6.140625" style="1" customWidth="1"/>
-    <col min="11015" max="11015" width="5.5703125" style="1" customWidth="1"/>
-    <col min="11016" max="11016" width="4.85546875" style="1" customWidth="1"/>
-    <col min="11017" max="11017" width="4.140625" style="1" customWidth="1"/>
-    <col min="11018" max="11019" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="11020" max="11020" width="9.7109375" style="1" customWidth="1"/>
-    <col min="11021" max="11021" width="3.7109375" style="1" customWidth="1"/>
-    <col min="11022" max="11022" width="2.42578125" style="1" customWidth="1"/>
-    <col min="11023" max="11023" width="3.7109375" style="1" customWidth="1"/>
-    <col min="11024" max="11024" width="6.5703125" style="1" customWidth="1"/>
-    <col min="11025" max="11025" width="2.42578125" style="1" customWidth="1"/>
-    <col min="11026" max="11026" width="6.28515625" style="1" customWidth="1"/>
-    <col min="11027" max="11265" width="7.7109375" style="1"/>
-    <col min="11266" max="11266" width="3.7109375" style="1" customWidth="1"/>
-    <col min="11267" max="11267" width="9.140625" style="1" customWidth="1"/>
-    <col min="11268" max="11268" width="24.7109375" style="1" customWidth="1"/>
-    <col min="11269" max="11269" width="6" style="1" customWidth="1"/>
-    <col min="11270" max="11270" width="6.140625" style="1" customWidth="1"/>
-    <col min="11271" max="11271" width="5.5703125" style="1" customWidth="1"/>
-    <col min="11272" max="11272" width="4.85546875" style="1" customWidth="1"/>
-    <col min="11273" max="11273" width="4.140625" style="1" customWidth="1"/>
-    <col min="11274" max="11275" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="11276" max="11276" width="9.7109375" style="1" customWidth="1"/>
-    <col min="11277" max="11277" width="3.7109375" style="1" customWidth="1"/>
-    <col min="11278" max="11278" width="2.42578125" style="1" customWidth="1"/>
-    <col min="11279" max="11279" width="3.7109375" style="1" customWidth="1"/>
-    <col min="11280" max="11280" width="6.5703125" style="1" customWidth="1"/>
-    <col min="11281" max="11281" width="2.42578125" style="1" customWidth="1"/>
-    <col min="11282" max="11282" width="6.28515625" style="1" customWidth="1"/>
-    <col min="11283" max="11521" width="7.7109375" style="1"/>
-    <col min="11522" max="11522" width="3.7109375" style="1" customWidth="1"/>
-    <col min="11523" max="11523" width="9.140625" style="1" customWidth="1"/>
-    <col min="11524" max="11524" width="24.7109375" style="1" customWidth="1"/>
-    <col min="11525" max="11525" width="6" style="1" customWidth="1"/>
-    <col min="11526" max="11526" width="6.140625" style="1" customWidth="1"/>
-    <col min="11527" max="11527" width="5.5703125" style="1" customWidth="1"/>
-    <col min="11528" max="11528" width="4.85546875" style="1" customWidth="1"/>
-    <col min="11529" max="11529" width="4.140625" style="1" customWidth="1"/>
-    <col min="11530" max="11531" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="11532" max="11532" width="9.7109375" style="1" customWidth="1"/>
-    <col min="11533" max="11533" width="3.7109375" style="1" customWidth="1"/>
-    <col min="11534" max="11534" width="2.42578125" style="1" customWidth="1"/>
-    <col min="11535" max="11535" width="3.7109375" style="1" customWidth="1"/>
-    <col min="11536" max="11536" width="6.5703125" style="1" customWidth="1"/>
-    <col min="11537" max="11537" width="2.42578125" style="1" customWidth="1"/>
-    <col min="11538" max="11538" width="6.28515625" style="1" customWidth="1"/>
-    <col min="11539" max="11777" width="7.7109375" style="1"/>
-    <col min="11778" max="11778" width="3.7109375" style="1" customWidth="1"/>
-    <col min="11779" max="11779" width="9.140625" style="1" customWidth="1"/>
-    <col min="11780" max="11780" width="24.7109375" style="1" customWidth="1"/>
-    <col min="11781" max="11781" width="6" style="1" customWidth="1"/>
-    <col min="11782" max="11782" width="6.140625" style="1" customWidth="1"/>
-    <col min="11783" max="11783" width="5.5703125" style="1" customWidth="1"/>
-    <col min="11784" max="11784" width="4.85546875" style="1" customWidth="1"/>
-    <col min="11785" max="11785" width="4.140625" style="1" customWidth="1"/>
-    <col min="11786" max="11787" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="11788" max="11788" width="9.7109375" style="1" customWidth="1"/>
-    <col min="11789" max="11789" width="3.7109375" style="1" customWidth="1"/>
-    <col min="11790" max="11790" width="2.42578125" style="1" customWidth="1"/>
-    <col min="11791" max="11791" width="3.7109375" style="1" customWidth="1"/>
-    <col min="11792" max="11792" width="6.5703125" style="1" customWidth="1"/>
-    <col min="11793" max="11793" width="2.42578125" style="1" customWidth="1"/>
-    <col min="11794" max="11794" width="6.28515625" style="1" customWidth="1"/>
-    <col min="11795" max="12033" width="7.7109375" style="1"/>
-    <col min="12034" max="12034" width="3.7109375" style="1" customWidth="1"/>
-    <col min="12035" max="12035" width="9.140625" style="1" customWidth="1"/>
-    <col min="12036" max="12036" width="24.7109375" style="1" customWidth="1"/>
-    <col min="12037" max="12037" width="6" style="1" customWidth="1"/>
-    <col min="12038" max="12038" width="6.140625" style="1" customWidth="1"/>
-    <col min="12039" max="12039" width="5.5703125" style="1" customWidth="1"/>
-    <col min="12040" max="12040" width="4.85546875" style="1" customWidth="1"/>
-    <col min="12041" max="12041" width="4.140625" style="1" customWidth="1"/>
-    <col min="12042" max="12043" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="12044" max="12044" width="9.7109375" style="1" customWidth="1"/>
-    <col min="12045" max="12045" width="3.7109375" style="1" customWidth="1"/>
-    <col min="12046" max="12046" width="2.42578125" style="1" customWidth="1"/>
-    <col min="12047" max="12047" width="3.7109375" style="1" customWidth="1"/>
-    <col min="12048" max="12048" width="6.5703125" style="1" customWidth="1"/>
-    <col min="12049" max="12049" width="2.42578125" style="1" customWidth="1"/>
-    <col min="12050" max="12050" width="6.28515625" style="1" customWidth="1"/>
-    <col min="12051" max="12289" width="7.7109375" style="1"/>
-    <col min="12290" max="12290" width="3.7109375" style="1" customWidth="1"/>
-    <col min="12291" max="12291" width="9.140625" style="1" customWidth="1"/>
-    <col min="12292" max="12292" width="24.7109375" style="1" customWidth="1"/>
-    <col min="12293" max="12293" width="6" style="1" customWidth="1"/>
-    <col min="12294" max="12294" width="6.140625" style="1" customWidth="1"/>
-    <col min="12295" max="12295" width="5.5703125" style="1" customWidth="1"/>
-    <col min="12296" max="12296" width="4.85546875" style="1" customWidth="1"/>
-    <col min="12297" max="12297" width="4.140625" style="1" customWidth="1"/>
-    <col min="12298" max="12299" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="12300" max="12300" width="9.7109375" style="1" customWidth="1"/>
-    <col min="12301" max="12301" width="3.7109375" style="1" customWidth="1"/>
-    <col min="12302" max="12302" width="2.42578125" style="1" customWidth="1"/>
-    <col min="12303" max="12303" width="3.7109375" style="1" customWidth="1"/>
-    <col min="12304" max="12304" width="6.5703125" style="1" customWidth="1"/>
-    <col min="12305" max="12305" width="2.42578125" style="1" customWidth="1"/>
-    <col min="12306" max="12306" width="6.28515625" style="1" customWidth="1"/>
-    <col min="12307" max="12545" width="7.7109375" style="1"/>
-    <col min="12546" max="12546" width="3.7109375" style="1" customWidth="1"/>
-    <col min="12547" max="12547" width="9.140625" style="1" customWidth="1"/>
-    <col min="12548" max="12548" width="24.7109375" style="1" customWidth="1"/>
-    <col min="12549" max="12549" width="6" style="1" customWidth="1"/>
-    <col min="12550" max="12550" width="6.140625" style="1" customWidth="1"/>
-    <col min="12551" max="12551" width="5.5703125" style="1" customWidth="1"/>
-    <col min="12552" max="12552" width="4.85546875" style="1" customWidth="1"/>
-    <col min="12553" max="12553" width="4.140625" style="1" customWidth="1"/>
-    <col min="12554" max="12555" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="12556" max="12556" width="9.7109375" style="1" customWidth="1"/>
-    <col min="12557" max="12557" width="3.7109375" style="1" customWidth="1"/>
-    <col min="12558" max="12558" width="2.42578125" style="1" customWidth="1"/>
-    <col min="12559" max="12559" width="3.7109375" style="1" customWidth="1"/>
-    <col min="12560" max="12560" width="6.5703125" style="1" customWidth="1"/>
-    <col min="12561" max="12561" width="2.42578125" style="1" customWidth="1"/>
-    <col min="12562" max="12562" width="6.28515625" style="1" customWidth="1"/>
-    <col min="12563" max="12801" width="7.7109375" style="1"/>
-    <col min="12802" max="12802" width="3.7109375" style="1" customWidth="1"/>
-    <col min="12803" max="12803" width="9.140625" style="1" customWidth="1"/>
-    <col min="12804" max="12804" width="24.7109375" style="1" customWidth="1"/>
-    <col min="12805" max="12805" width="6" style="1" customWidth="1"/>
-    <col min="12806" max="12806" width="6.140625" style="1" customWidth="1"/>
-    <col min="12807" max="12807" width="5.5703125" style="1" customWidth="1"/>
-    <col min="12808" max="12808" width="4.85546875" style="1" customWidth="1"/>
-    <col min="12809" max="12809" width="4.140625" style="1" customWidth="1"/>
-    <col min="12810" max="12811" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="12812" max="12812" width="9.7109375" style="1" customWidth="1"/>
-    <col min="12813" max="12813" width="3.7109375" style="1" customWidth="1"/>
-    <col min="12814" max="12814" width="2.42578125" style="1" customWidth="1"/>
-    <col min="12815" max="12815" width="3.7109375" style="1" customWidth="1"/>
-    <col min="12816" max="12816" width="6.5703125" style="1" customWidth="1"/>
-    <col min="12817" max="12817" width="2.42578125" style="1" customWidth="1"/>
-    <col min="12818" max="12818" width="6.28515625" style="1" customWidth="1"/>
-    <col min="12819" max="13057" width="7.7109375" style="1"/>
-    <col min="13058" max="13058" width="3.7109375" style="1" customWidth="1"/>
-    <col min="13059" max="13059" width="9.140625" style="1" customWidth="1"/>
-    <col min="13060" max="13060" width="24.7109375" style="1" customWidth="1"/>
-    <col min="13061" max="13061" width="6" style="1" customWidth="1"/>
-    <col min="13062" max="13062" width="6.140625" style="1" customWidth="1"/>
-    <col min="13063" max="13063" width="5.5703125" style="1" customWidth="1"/>
-    <col min="13064" max="13064" width="4.85546875" style="1" customWidth="1"/>
-    <col min="13065" max="13065" width="4.140625" style="1" customWidth="1"/>
-    <col min="13066" max="13067" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="13068" max="13068" width="9.7109375" style="1" customWidth="1"/>
-    <col min="13069" max="13069" width="3.7109375" style="1" customWidth="1"/>
-    <col min="13070" max="13070" width="2.42578125" style="1" customWidth="1"/>
-    <col min="13071" max="13071" width="3.7109375" style="1" customWidth="1"/>
-    <col min="13072" max="13072" width="6.5703125" style="1" customWidth="1"/>
-    <col min="13073" max="13073" width="2.42578125" style="1" customWidth="1"/>
-    <col min="13074" max="13074" width="6.28515625" style="1" customWidth="1"/>
-    <col min="13075" max="13313" width="7.7109375" style="1"/>
-    <col min="13314" max="13314" width="3.7109375" style="1" customWidth="1"/>
-    <col min="13315" max="13315" width="9.140625" style="1" customWidth="1"/>
-    <col min="13316" max="13316" width="24.7109375" style="1" customWidth="1"/>
-    <col min="13317" max="13317" width="6" style="1" customWidth="1"/>
-    <col min="13318" max="13318" width="6.140625" style="1" customWidth="1"/>
-    <col min="13319" max="13319" width="5.5703125" style="1" customWidth="1"/>
-    <col min="13320" max="13320" width="4.85546875" style="1" customWidth="1"/>
-    <col min="13321" max="13321" width="4.140625" style="1" customWidth="1"/>
-    <col min="13322" max="13323" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="13324" max="13324" width="9.7109375" style="1" customWidth="1"/>
-    <col min="13325" max="13325" width="3.7109375" style="1" customWidth="1"/>
-    <col min="13326" max="13326" width="2.42578125" style="1" customWidth="1"/>
-    <col min="13327" max="13327" width="3.7109375" style="1" customWidth="1"/>
-    <col min="13328" max="13328" width="6.5703125" style="1" customWidth="1"/>
-    <col min="13329" max="13329" width="2.42578125" style="1" customWidth="1"/>
-    <col min="13330" max="13330" width="6.28515625" style="1" customWidth="1"/>
-    <col min="13331" max="13569" width="7.7109375" style="1"/>
-    <col min="13570" max="13570" width="3.7109375" style="1" customWidth="1"/>
-    <col min="13571" max="13571" width="9.140625" style="1" customWidth="1"/>
-    <col min="13572" max="13572" width="24.7109375" style="1" customWidth="1"/>
-    <col min="13573" max="13573" width="6" style="1" customWidth="1"/>
-    <col min="13574" max="13574" width="6.140625" style="1" customWidth="1"/>
-    <col min="13575" max="13575" width="5.5703125" style="1" customWidth="1"/>
-    <col min="13576" max="13576" width="4.85546875" style="1" customWidth="1"/>
-    <col min="13577" max="13577" width="4.140625" style="1" customWidth="1"/>
-    <col min="13578" max="13579" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="13580" max="13580" width="9.7109375" style="1" customWidth="1"/>
-    <col min="13581" max="13581" width="3.7109375" style="1" customWidth="1"/>
-    <col min="13582" max="13582" width="2.42578125" style="1" customWidth="1"/>
-    <col min="13583" max="13583" width="3.7109375" style="1" customWidth="1"/>
-    <col min="13584" max="13584" width="6.5703125" style="1" customWidth="1"/>
-    <col min="13585" max="13585" width="2.42578125" style="1" customWidth="1"/>
-    <col min="13586" max="13586" width="6.28515625" style="1" customWidth="1"/>
-    <col min="13587" max="13825" width="7.7109375" style="1"/>
-    <col min="13826" max="13826" width="3.7109375" style="1" customWidth="1"/>
-    <col min="13827" max="13827" width="9.140625" style="1" customWidth="1"/>
-    <col min="13828" max="13828" width="24.7109375" style="1" customWidth="1"/>
-    <col min="13829" max="13829" width="6" style="1" customWidth="1"/>
-    <col min="13830" max="13830" width="6.140625" style="1" customWidth="1"/>
-    <col min="13831" max="13831" width="5.5703125" style="1" customWidth="1"/>
-    <col min="13832" max="13832" width="4.85546875" style="1" customWidth="1"/>
-    <col min="13833" max="13833" width="4.140625" style="1" customWidth="1"/>
-    <col min="13834" max="13835" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="13836" max="13836" width="9.7109375" style="1" customWidth="1"/>
-    <col min="13837" max="13837" width="3.7109375" style="1" customWidth="1"/>
-    <col min="13838" max="13838" width="2.42578125" style="1" customWidth="1"/>
-    <col min="13839" max="13839" width="3.7109375" style="1" customWidth="1"/>
-    <col min="13840" max="13840" width="6.5703125" style="1" customWidth="1"/>
-    <col min="13841" max="13841" width="2.42578125" style="1" customWidth="1"/>
-    <col min="13842" max="13842" width="6.28515625" style="1" customWidth="1"/>
-    <col min="13843" max="14081" width="7.7109375" style="1"/>
-    <col min="14082" max="14082" width="3.7109375" style="1" customWidth="1"/>
-    <col min="14083" max="14083" width="9.140625" style="1" customWidth="1"/>
-    <col min="14084" max="14084" width="24.7109375" style="1" customWidth="1"/>
-    <col min="14085" max="14085" width="6" style="1" customWidth="1"/>
-    <col min="14086" max="14086" width="6.140625" style="1" customWidth="1"/>
-    <col min="14087" max="14087" width="5.5703125" style="1" customWidth="1"/>
-    <col min="14088" max="14088" width="4.85546875" style="1" customWidth="1"/>
-    <col min="14089" max="14089" width="4.140625" style="1" customWidth="1"/>
-    <col min="14090" max="14091" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="14092" max="14092" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14093" max="14093" width="3.7109375" style="1" customWidth="1"/>
-    <col min="14094" max="14094" width="2.42578125" style="1" customWidth="1"/>
-    <col min="14095" max="14095" width="3.7109375" style="1" customWidth="1"/>
-    <col min="14096" max="14096" width="6.5703125" style="1" customWidth="1"/>
-    <col min="14097" max="14097" width="2.42578125" style="1" customWidth="1"/>
-    <col min="14098" max="14098" width="6.28515625" style="1" customWidth="1"/>
-    <col min="14099" max="14337" width="7.7109375" style="1"/>
-    <col min="14338" max="14338" width="3.7109375" style="1" customWidth="1"/>
-    <col min="14339" max="14339" width="9.140625" style="1" customWidth="1"/>
-    <col min="14340" max="14340" width="24.7109375" style="1" customWidth="1"/>
-    <col min="14341" max="14341" width="6" style="1" customWidth="1"/>
-    <col min="14342" max="14342" width="6.140625" style="1" customWidth="1"/>
-    <col min="14343" max="14343" width="5.5703125" style="1" customWidth="1"/>
-    <col min="14344" max="14344" width="4.85546875" style="1" customWidth="1"/>
-    <col min="14345" max="14345" width="4.140625" style="1" customWidth="1"/>
-    <col min="14346" max="14347" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="14348" max="14348" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14349" max="14349" width="3.7109375" style="1" customWidth="1"/>
-    <col min="14350" max="14350" width="2.42578125" style="1" customWidth="1"/>
-    <col min="14351" max="14351" width="3.7109375" style="1" customWidth="1"/>
-    <col min="14352" max="14352" width="6.5703125" style="1" customWidth="1"/>
-    <col min="14353" max="14353" width="2.42578125" style="1" customWidth="1"/>
-    <col min="14354" max="14354" width="6.28515625" style="1" customWidth="1"/>
-    <col min="14355" max="14593" width="7.7109375" style="1"/>
-    <col min="14594" max="14594" width="3.7109375" style="1" customWidth="1"/>
-    <col min="14595" max="14595" width="9.140625" style="1" customWidth="1"/>
-    <col min="14596" max="14596" width="24.7109375" style="1" customWidth="1"/>
-    <col min="14597" max="14597" width="6" style="1" customWidth="1"/>
-    <col min="14598" max="14598" width="6.140625" style="1" customWidth="1"/>
-    <col min="14599" max="14599" width="5.5703125" style="1" customWidth="1"/>
-    <col min="14600" max="14600" width="4.85546875" style="1" customWidth="1"/>
-    <col min="14601" max="14601" width="4.140625" style="1" customWidth="1"/>
-    <col min="14602" max="14603" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="14604" max="14604" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14605" max="14605" width="3.7109375" style="1" customWidth="1"/>
-    <col min="14606" max="14606" width="2.42578125" style="1" customWidth="1"/>
-    <col min="14607" max="14607" width="3.7109375" style="1" customWidth="1"/>
-    <col min="14608" max="14608" width="6.5703125" style="1" customWidth="1"/>
-    <col min="14609" max="14609" width="2.42578125" style="1" customWidth="1"/>
-    <col min="14610" max="14610" width="6.28515625" style="1" customWidth="1"/>
-    <col min="14611" max="14849" width="7.7109375" style="1"/>
-    <col min="14850" max="14850" width="3.7109375" style="1" customWidth="1"/>
-    <col min="14851" max="14851" width="9.140625" style="1" customWidth="1"/>
-    <col min="14852" max="14852" width="24.7109375" style="1" customWidth="1"/>
-    <col min="14853" max="14853" width="6" style="1" customWidth="1"/>
-    <col min="14854" max="14854" width="6.140625" style="1" customWidth="1"/>
-    <col min="14855" max="14855" width="5.5703125" style="1" customWidth="1"/>
-    <col min="14856" max="14856" width="4.85546875" style="1" customWidth="1"/>
-    <col min="14857" max="14857" width="4.140625" style="1" customWidth="1"/>
-    <col min="14858" max="14859" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="14860" max="14860" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14861" max="14861" width="3.7109375" style="1" customWidth="1"/>
-    <col min="14862" max="14862" width="2.42578125" style="1" customWidth="1"/>
-    <col min="14863" max="14863" width="3.7109375" style="1" customWidth="1"/>
-    <col min="14864" max="14864" width="6.5703125" style="1" customWidth="1"/>
-    <col min="14865" max="14865" width="2.42578125" style="1" customWidth="1"/>
-    <col min="14866" max="14866" width="6.28515625" style="1" customWidth="1"/>
-    <col min="14867" max="15105" width="7.7109375" style="1"/>
-    <col min="15106" max="15106" width="3.7109375" style="1" customWidth="1"/>
-    <col min="15107" max="15107" width="9.140625" style="1" customWidth="1"/>
-    <col min="15108" max="15108" width="24.7109375" style="1" customWidth="1"/>
-    <col min="15109" max="15109" width="6" style="1" customWidth="1"/>
-    <col min="15110" max="15110" width="6.140625" style="1" customWidth="1"/>
-    <col min="15111" max="15111" width="5.5703125" style="1" customWidth="1"/>
-    <col min="15112" max="15112" width="4.85546875" style="1" customWidth="1"/>
-    <col min="15113" max="15113" width="4.140625" style="1" customWidth="1"/>
-    <col min="15114" max="15115" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="15116" max="15116" width="9.7109375" style="1" customWidth="1"/>
-    <col min="15117" max="15117" width="3.7109375" style="1" customWidth="1"/>
-    <col min="15118" max="15118" width="2.42578125" style="1" customWidth="1"/>
-    <col min="15119" max="15119" width="3.7109375" style="1" customWidth="1"/>
-    <col min="15120" max="15120" width="6.5703125" style="1" customWidth="1"/>
-    <col min="15121" max="15121" width="2.42578125" style="1" customWidth="1"/>
-    <col min="15122" max="15122" width="6.28515625" style="1" customWidth="1"/>
-    <col min="15123" max="15361" width="7.7109375" style="1"/>
-    <col min="15362" max="15362" width="3.7109375" style="1" customWidth="1"/>
-    <col min="15363" max="15363" width="9.140625" style="1" customWidth="1"/>
-    <col min="15364" max="15364" width="24.7109375" style="1" customWidth="1"/>
-    <col min="15365" max="15365" width="6" style="1" customWidth="1"/>
-    <col min="15366" max="15366" width="6.140625" style="1" customWidth="1"/>
-    <col min="15367" max="15367" width="5.5703125" style="1" customWidth="1"/>
-    <col min="15368" max="15368" width="4.85546875" style="1" customWidth="1"/>
-    <col min="15369" max="15369" width="4.140625" style="1" customWidth="1"/>
-    <col min="15370" max="15371" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="15372" max="15372" width="9.7109375" style="1" customWidth="1"/>
-    <col min="15373" max="15373" width="3.7109375" style="1" customWidth="1"/>
-    <col min="15374" max="15374" width="2.42578125" style="1" customWidth="1"/>
-    <col min="15375" max="15375" width="3.7109375" style="1" customWidth="1"/>
-    <col min="15376" max="15376" width="6.5703125" style="1" customWidth="1"/>
-    <col min="15377" max="15377" width="2.42578125" style="1" customWidth="1"/>
-    <col min="15378" max="15378" width="6.28515625" style="1" customWidth="1"/>
-    <col min="15379" max="15617" width="7.7109375" style="1"/>
-    <col min="15618" max="15618" width="3.7109375" style="1" customWidth="1"/>
-    <col min="15619" max="15619" width="9.140625" style="1" customWidth="1"/>
-    <col min="15620" max="15620" width="24.7109375" style="1" customWidth="1"/>
-    <col min="15621" max="15621" width="6" style="1" customWidth="1"/>
-    <col min="15622" max="15622" width="6.140625" style="1" customWidth="1"/>
-    <col min="15623" max="15623" width="5.5703125" style="1" customWidth="1"/>
-    <col min="15624" max="15624" width="4.85546875" style="1" customWidth="1"/>
-    <col min="15625" max="15625" width="4.140625" style="1" customWidth="1"/>
-    <col min="15626" max="15627" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="15628" max="15628" width="9.7109375" style="1" customWidth="1"/>
-    <col min="15629" max="15629" width="3.7109375" style="1" customWidth="1"/>
-    <col min="15630" max="15630" width="2.42578125" style="1" customWidth="1"/>
-    <col min="15631" max="15631" width="3.7109375" style="1" customWidth="1"/>
-    <col min="15632" max="15632" width="6.5703125" style="1" customWidth="1"/>
-    <col min="15633" max="15633" width="2.42578125" style="1" customWidth="1"/>
-    <col min="15634" max="15634" width="6.28515625" style="1" customWidth="1"/>
-    <col min="15635" max="15873" width="7.7109375" style="1"/>
-    <col min="15874" max="15874" width="3.7109375" style="1" customWidth="1"/>
-    <col min="15875" max="15875" width="9.140625" style="1" customWidth="1"/>
-    <col min="15876" max="15876" width="24.7109375" style="1" customWidth="1"/>
-    <col min="15877" max="15877" width="6" style="1" customWidth="1"/>
-    <col min="15878" max="15878" width="6.140625" style="1" customWidth="1"/>
-    <col min="15879" max="15879" width="5.5703125" style="1" customWidth="1"/>
-    <col min="15880" max="15880" width="4.85546875" style="1" customWidth="1"/>
-    <col min="15881" max="15881" width="4.140625" style="1" customWidth="1"/>
-    <col min="15882" max="15883" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="15884" max="15884" width="9.7109375" style="1" customWidth="1"/>
-    <col min="15885" max="15885" width="3.7109375" style="1" customWidth="1"/>
-    <col min="15886" max="15886" width="2.42578125" style="1" customWidth="1"/>
-    <col min="15887" max="15887" width="3.7109375" style="1" customWidth="1"/>
-    <col min="15888" max="15888" width="6.5703125" style="1" customWidth="1"/>
-    <col min="15889" max="15889" width="2.42578125" style="1" customWidth="1"/>
-    <col min="15890" max="15890" width="6.28515625" style="1" customWidth="1"/>
-    <col min="15891" max="16129" width="7.7109375" style="1"/>
-    <col min="16130" max="16130" width="3.7109375" style="1" customWidth="1"/>
-    <col min="16131" max="16131" width="9.140625" style="1" customWidth="1"/>
-    <col min="16132" max="16132" width="24.7109375" style="1" customWidth="1"/>
-    <col min="16133" max="16133" width="6" style="1" customWidth="1"/>
-    <col min="16134" max="16134" width="6.140625" style="1" customWidth="1"/>
-    <col min="16135" max="16135" width="5.5703125" style="1" customWidth="1"/>
-    <col min="16136" max="16136" width="4.85546875" style="1" customWidth="1"/>
-    <col min="16137" max="16137" width="4.140625" style="1" customWidth="1"/>
-    <col min="16138" max="16139" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="16140" max="16140" width="9.7109375" style="1" customWidth="1"/>
-    <col min="16141" max="16141" width="3.7109375" style="1" customWidth="1"/>
-    <col min="16142" max="16142" width="2.42578125" style="1" customWidth="1"/>
-    <col min="16143" max="16143" width="3.7109375" style="1" customWidth="1"/>
-    <col min="16144" max="16144" width="6.5703125" style="1" customWidth="1"/>
-    <col min="16145" max="16145" width="2.42578125" style="1" customWidth="1"/>
-    <col min="16146" max="16146" width="6.28515625" style="1" customWidth="1"/>
-    <col min="16147" max="16384" width="7.7109375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="36" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-    </row>
-    <row r="2" spans="1:23" ht="28" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="5"/>
-      <c r="B4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="7"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="9"/>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="8"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="6"/>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="8"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="6"/>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="9"/>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="8"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="11"/>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="8"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="6"/>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="8"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="6"/>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="8"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="6"/>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="8"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="6"/>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="8"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="6"/>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="8"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="6"/>
-    </row>
-    <row r="17" spans="1:23">
-      <c r="A17" s="8"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="6"/>
-    </row>
-    <row r="18" spans="1:23">
-      <c r="A18" s="8"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="6"/>
-    </row>
-    <row r="19" spans="1:23">
-      <c r="A19" s="8"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="6"/>
-    </row>
-    <row r="20" spans="1:23">
-      <c r="A20" s="8"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="11"/>
-    </row>
-    <row r="21" spans="1:23">
-      <c r="A21" s="8"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="11"/>
-    </row>
-    <row r="22" spans="1:23">
-      <c r="A22" s="12"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-    </row>
-    <row r="23" spans="1:23">
-      <c r="A23" s="8"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="11"/>
-    </row>
-    <row r="24" spans="1:23">
-      <c r="A24" s="8"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="11"/>
-    </row>
-    <row r="25" spans="1:23">
-      <c r="A25" s="12"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-    </row>
-    <row r="26" spans="1:23">
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-    </row>
-    <row r="27" spans="1:23">
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-    </row>
-    <row r="28" spans="1:23">
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-    </row>
-    <row r="29" spans="1:23">
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C26:R29"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007F95C3-485F-C04D-B474-5A9DD6FD5CFD}">
-  <dimension ref="A1:W29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.7109375" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" style="1" customWidth="1"/>
-    <col min="9" max="23" width="6.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
+    <col min="4" max="8" width="4.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="4.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" style="1" customWidth="1"/>
+    <col min="13" max="14" width="4.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" style="1" customWidth="1"/>
+    <col min="16" max="17" width="4.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="5.5703125" style="1" customWidth="1"/>
+    <col min="19" max="20" width="4.140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="5.5703125" style="1" customWidth="1"/>
+    <col min="22" max="23" width="4.140625" style="1" customWidth="1"/>
     <col min="24" max="257" width="7.7109375" style="1"/>
     <col min="258" max="258" width="3.7109375" style="1" customWidth="1"/>
     <col min="259" max="259" width="9.140625" style="1" customWidth="1"/>
@@ -3560,7 +1744,7 @@
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" ht="18" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="4"/>
@@ -3610,50 +1794,50 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" ht="18" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>6</v>
-      </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="17"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="17"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="17"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="17"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="V4" s="16"/>
+      <c r="W4" s="17"/>
+    </row>
+    <row r="5" spans="1:23" ht="61" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6" t="s">
         <v>1</v>
@@ -4191,79 +2375,81 @@
       <c r="W25" s="10"/>
     </row>
     <row r="26" spans="1:23">
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
     </row>
     <row r="28" spans="1:23">
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="12">
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="V4:W4"/>
     <mergeCell ref="C26:R29"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
@@ -4271,8 +2457,1861 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007F95C3-485F-C04D-B474-5A9DD6FD5CFD}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:W29"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.7109375" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
+    <col min="4" max="8" width="4.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="4.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" style="1" customWidth="1"/>
+    <col min="13" max="14" width="4.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" style="1" customWidth="1"/>
+    <col min="16" max="17" width="4.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="5.5703125" style="1" customWidth="1"/>
+    <col min="19" max="20" width="4.140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="5.5703125" style="1" customWidth="1"/>
+    <col min="22" max="23" width="4.140625" style="1" customWidth="1"/>
+    <col min="24" max="257" width="7.7109375" style="1"/>
+    <col min="258" max="258" width="3.7109375" style="1" customWidth="1"/>
+    <col min="259" max="259" width="9.140625" style="1" customWidth="1"/>
+    <col min="260" max="260" width="24.7109375" style="1" customWidth="1"/>
+    <col min="261" max="261" width="6" style="1" customWidth="1"/>
+    <col min="262" max="262" width="6.140625" style="1" customWidth="1"/>
+    <col min="263" max="263" width="5.5703125" style="1" customWidth="1"/>
+    <col min="264" max="264" width="4.85546875" style="1" customWidth="1"/>
+    <col min="265" max="265" width="4.140625" style="1" customWidth="1"/>
+    <col min="266" max="267" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="268" max="268" width="9.7109375" style="1" customWidth="1"/>
+    <col min="269" max="269" width="3.7109375" style="1" customWidth="1"/>
+    <col min="270" max="270" width="2.42578125" style="1" customWidth="1"/>
+    <col min="271" max="271" width="3.7109375" style="1" customWidth="1"/>
+    <col min="272" max="272" width="6.5703125" style="1" customWidth="1"/>
+    <col min="273" max="273" width="2.42578125" style="1" customWidth="1"/>
+    <col min="274" max="274" width="6.28515625" style="1" customWidth="1"/>
+    <col min="275" max="513" width="7.7109375" style="1"/>
+    <col min="514" max="514" width="3.7109375" style="1" customWidth="1"/>
+    <col min="515" max="515" width="9.140625" style="1" customWidth="1"/>
+    <col min="516" max="516" width="24.7109375" style="1" customWidth="1"/>
+    <col min="517" max="517" width="6" style="1" customWidth="1"/>
+    <col min="518" max="518" width="6.140625" style="1" customWidth="1"/>
+    <col min="519" max="519" width="5.5703125" style="1" customWidth="1"/>
+    <col min="520" max="520" width="4.85546875" style="1" customWidth="1"/>
+    <col min="521" max="521" width="4.140625" style="1" customWidth="1"/>
+    <col min="522" max="523" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="524" max="524" width="9.7109375" style="1" customWidth="1"/>
+    <col min="525" max="525" width="3.7109375" style="1" customWidth="1"/>
+    <col min="526" max="526" width="2.42578125" style="1" customWidth="1"/>
+    <col min="527" max="527" width="3.7109375" style="1" customWidth="1"/>
+    <col min="528" max="528" width="6.5703125" style="1" customWidth="1"/>
+    <col min="529" max="529" width="2.42578125" style="1" customWidth="1"/>
+    <col min="530" max="530" width="6.28515625" style="1" customWidth="1"/>
+    <col min="531" max="769" width="7.7109375" style="1"/>
+    <col min="770" max="770" width="3.7109375" style="1" customWidth="1"/>
+    <col min="771" max="771" width="9.140625" style="1" customWidth="1"/>
+    <col min="772" max="772" width="24.7109375" style="1" customWidth="1"/>
+    <col min="773" max="773" width="6" style="1" customWidth="1"/>
+    <col min="774" max="774" width="6.140625" style="1" customWidth="1"/>
+    <col min="775" max="775" width="5.5703125" style="1" customWidth="1"/>
+    <col min="776" max="776" width="4.85546875" style="1" customWidth="1"/>
+    <col min="777" max="777" width="4.140625" style="1" customWidth="1"/>
+    <col min="778" max="779" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="780" max="780" width="9.7109375" style="1" customWidth="1"/>
+    <col min="781" max="781" width="3.7109375" style="1" customWidth="1"/>
+    <col min="782" max="782" width="2.42578125" style="1" customWidth="1"/>
+    <col min="783" max="783" width="3.7109375" style="1" customWidth="1"/>
+    <col min="784" max="784" width="6.5703125" style="1" customWidth="1"/>
+    <col min="785" max="785" width="2.42578125" style="1" customWidth="1"/>
+    <col min="786" max="786" width="6.28515625" style="1" customWidth="1"/>
+    <col min="787" max="1025" width="7.7109375" style="1"/>
+    <col min="1026" max="1026" width="3.7109375" style="1" customWidth="1"/>
+    <col min="1027" max="1027" width="9.140625" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="24.7109375" style="1" customWidth="1"/>
+    <col min="1029" max="1029" width="6" style="1" customWidth="1"/>
+    <col min="1030" max="1030" width="6.140625" style="1" customWidth="1"/>
+    <col min="1031" max="1031" width="5.5703125" style="1" customWidth="1"/>
+    <col min="1032" max="1032" width="4.85546875" style="1" customWidth="1"/>
+    <col min="1033" max="1033" width="4.140625" style="1" customWidth="1"/>
+    <col min="1034" max="1035" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="1036" max="1036" width="9.7109375" style="1" customWidth="1"/>
+    <col min="1037" max="1037" width="3.7109375" style="1" customWidth="1"/>
+    <col min="1038" max="1038" width="2.42578125" style="1" customWidth="1"/>
+    <col min="1039" max="1039" width="3.7109375" style="1" customWidth="1"/>
+    <col min="1040" max="1040" width="6.5703125" style="1" customWidth="1"/>
+    <col min="1041" max="1041" width="2.42578125" style="1" customWidth="1"/>
+    <col min="1042" max="1042" width="6.28515625" style="1" customWidth="1"/>
+    <col min="1043" max="1281" width="7.7109375" style="1"/>
+    <col min="1282" max="1282" width="3.7109375" style="1" customWidth="1"/>
+    <col min="1283" max="1283" width="9.140625" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="24.7109375" style="1" customWidth="1"/>
+    <col min="1285" max="1285" width="6" style="1" customWidth="1"/>
+    <col min="1286" max="1286" width="6.140625" style="1" customWidth="1"/>
+    <col min="1287" max="1287" width="5.5703125" style="1" customWidth="1"/>
+    <col min="1288" max="1288" width="4.85546875" style="1" customWidth="1"/>
+    <col min="1289" max="1289" width="4.140625" style="1" customWidth="1"/>
+    <col min="1290" max="1291" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="1292" max="1292" width="9.7109375" style="1" customWidth="1"/>
+    <col min="1293" max="1293" width="3.7109375" style="1" customWidth="1"/>
+    <col min="1294" max="1294" width="2.42578125" style="1" customWidth="1"/>
+    <col min="1295" max="1295" width="3.7109375" style="1" customWidth="1"/>
+    <col min="1296" max="1296" width="6.5703125" style="1" customWidth="1"/>
+    <col min="1297" max="1297" width="2.42578125" style="1" customWidth="1"/>
+    <col min="1298" max="1298" width="6.28515625" style="1" customWidth="1"/>
+    <col min="1299" max="1537" width="7.7109375" style="1"/>
+    <col min="1538" max="1538" width="3.7109375" style="1" customWidth="1"/>
+    <col min="1539" max="1539" width="9.140625" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="24.7109375" style="1" customWidth="1"/>
+    <col min="1541" max="1541" width="6" style="1" customWidth="1"/>
+    <col min="1542" max="1542" width="6.140625" style="1" customWidth="1"/>
+    <col min="1543" max="1543" width="5.5703125" style="1" customWidth="1"/>
+    <col min="1544" max="1544" width="4.85546875" style="1" customWidth="1"/>
+    <col min="1545" max="1545" width="4.140625" style="1" customWidth="1"/>
+    <col min="1546" max="1547" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="1548" max="1548" width="9.7109375" style="1" customWidth="1"/>
+    <col min="1549" max="1549" width="3.7109375" style="1" customWidth="1"/>
+    <col min="1550" max="1550" width="2.42578125" style="1" customWidth="1"/>
+    <col min="1551" max="1551" width="3.7109375" style="1" customWidth="1"/>
+    <col min="1552" max="1552" width="6.5703125" style="1" customWidth="1"/>
+    <col min="1553" max="1553" width="2.42578125" style="1" customWidth="1"/>
+    <col min="1554" max="1554" width="6.28515625" style="1" customWidth="1"/>
+    <col min="1555" max="1793" width="7.7109375" style="1"/>
+    <col min="1794" max="1794" width="3.7109375" style="1" customWidth="1"/>
+    <col min="1795" max="1795" width="9.140625" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="24.7109375" style="1" customWidth="1"/>
+    <col min="1797" max="1797" width="6" style="1" customWidth="1"/>
+    <col min="1798" max="1798" width="6.140625" style="1" customWidth="1"/>
+    <col min="1799" max="1799" width="5.5703125" style="1" customWidth="1"/>
+    <col min="1800" max="1800" width="4.85546875" style="1" customWidth="1"/>
+    <col min="1801" max="1801" width="4.140625" style="1" customWidth="1"/>
+    <col min="1802" max="1803" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="1804" max="1804" width="9.7109375" style="1" customWidth="1"/>
+    <col min="1805" max="1805" width="3.7109375" style="1" customWidth="1"/>
+    <col min="1806" max="1806" width="2.42578125" style="1" customWidth="1"/>
+    <col min="1807" max="1807" width="3.7109375" style="1" customWidth="1"/>
+    <col min="1808" max="1808" width="6.5703125" style="1" customWidth="1"/>
+    <col min="1809" max="1809" width="2.42578125" style="1" customWidth="1"/>
+    <col min="1810" max="1810" width="6.28515625" style="1" customWidth="1"/>
+    <col min="1811" max="2049" width="7.7109375" style="1"/>
+    <col min="2050" max="2050" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2051" max="2051" width="9.140625" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="24.7109375" style="1" customWidth="1"/>
+    <col min="2053" max="2053" width="6" style="1" customWidth="1"/>
+    <col min="2054" max="2054" width="6.140625" style="1" customWidth="1"/>
+    <col min="2055" max="2055" width="5.5703125" style="1" customWidth="1"/>
+    <col min="2056" max="2056" width="4.85546875" style="1" customWidth="1"/>
+    <col min="2057" max="2057" width="4.140625" style="1" customWidth="1"/>
+    <col min="2058" max="2059" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="2060" max="2060" width="9.7109375" style="1" customWidth="1"/>
+    <col min="2061" max="2061" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2062" max="2062" width="2.42578125" style="1" customWidth="1"/>
+    <col min="2063" max="2063" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2064" max="2064" width="6.5703125" style="1" customWidth="1"/>
+    <col min="2065" max="2065" width="2.42578125" style="1" customWidth="1"/>
+    <col min="2066" max="2066" width="6.28515625" style="1" customWidth="1"/>
+    <col min="2067" max="2305" width="7.7109375" style="1"/>
+    <col min="2306" max="2306" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2307" max="2307" width="9.140625" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="24.7109375" style="1" customWidth="1"/>
+    <col min="2309" max="2309" width="6" style="1" customWidth="1"/>
+    <col min="2310" max="2310" width="6.140625" style="1" customWidth="1"/>
+    <col min="2311" max="2311" width="5.5703125" style="1" customWidth="1"/>
+    <col min="2312" max="2312" width="4.85546875" style="1" customWidth="1"/>
+    <col min="2313" max="2313" width="4.140625" style="1" customWidth="1"/>
+    <col min="2314" max="2315" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="2316" max="2316" width="9.7109375" style="1" customWidth="1"/>
+    <col min="2317" max="2317" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2318" max="2318" width="2.42578125" style="1" customWidth="1"/>
+    <col min="2319" max="2319" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2320" max="2320" width="6.5703125" style="1" customWidth="1"/>
+    <col min="2321" max="2321" width="2.42578125" style="1" customWidth="1"/>
+    <col min="2322" max="2322" width="6.28515625" style="1" customWidth="1"/>
+    <col min="2323" max="2561" width="7.7109375" style="1"/>
+    <col min="2562" max="2562" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2563" max="2563" width="9.140625" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="24.7109375" style="1" customWidth="1"/>
+    <col min="2565" max="2565" width="6" style="1" customWidth="1"/>
+    <col min="2566" max="2566" width="6.140625" style="1" customWidth="1"/>
+    <col min="2567" max="2567" width="5.5703125" style="1" customWidth="1"/>
+    <col min="2568" max="2568" width="4.85546875" style="1" customWidth="1"/>
+    <col min="2569" max="2569" width="4.140625" style="1" customWidth="1"/>
+    <col min="2570" max="2571" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="2572" max="2572" width="9.7109375" style="1" customWidth="1"/>
+    <col min="2573" max="2573" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2574" max="2574" width="2.42578125" style="1" customWidth="1"/>
+    <col min="2575" max="2575" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2576" max="2576" width="6.5703125" style="1" customWidth="1"/>
+    <col min="2577" max="2577" width="2.42578125" style="1" customWidth="1"/>
+    <col min="2578" max="2578" width="6.28515625" style="1" customWidth="1"/>
+    <col min="2579" max="2817" width="7.7109375" style="1"/>
+    <col min="2818" max="2818" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2819" max="2819" width="9.140625" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="24.7109375" style="1" customWidth="1"/>
+    <col min="2821" max="2821" width="6" style="1" customWidth="1"/>
+    <col min="2822" max="2822" width="6.140625" style="1" customWidth="1"/>
+    <col min="2823" max="2823" width="5.5703125" style="1" customWidth="1"/>
+    <col min="2824" max="2824" width="4.85546875" style="1" customWidth="1"/>
+    <col min="2825" max="2825" width="4.140625" style="1" customWidth="1"/>
+    <col min="2826" max="2827" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="2828" max="2828" width="9.7109375" style="1" customWidth="1"/>
+    <col min="2829" max="2829" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2830" max="2830" width="2.42578125" style="1" customWidth="1"/>
+    <col min="2831" max="2831" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2832" max="2832" width="6.5703125" style="1" customWidth="1"/>
+    <col min="2833" max="2833" width="2.42578125" style="1" customWidth="1"/>
+    <col min="2834" max="2834" width="6.28515625" style="1" customWidth="1"/>
+    <col min="2835" max="3073" width="7.7109375" style="1"/>
+    <col min="3074" max="3074" width="3.7109375" style="1" customWidth="1"/>
+    <col min="3075" max="3075" width="9.140625" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="24.7109375" style="1" customWidth="1"/>
+    <col min="3077" max="3077" width="6" style="1" customWidth="1"/>
+    <col min="3078" max="3078" width="6.140625" style="1" customWidth="1"/>
+    <col min="3079" max="3079" width="5.5703125" style="1" customWidth="1"/>
+    <col min="3080" max="3080" width="4.85546875" style="1" customWidth="1"/>
+    <col min="3081" max="3081" width="4.140625" style="1" customWidth="1"/>
+    <col min="3082" max="3083" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="3084" max="3084" width="9.7109375" style="1" customWidth="1"/>
+    <col min="3085" max="3085" width="3.7109375" style="1" customWidth="1"/>
+    <col min="3086" max="3086" width="2.42578125" style="1" customWidth="1"/>
+    <col min="3087" max="3087" width="3.7109375" style="1" customWidth="1"/>
+    <col min="3088" max="3088" width="6.5703125" style="1" customWidth="1"/>
+    <col min="3089" max="3089" width="2.42578125" style="1" customWidth="1"/>
+    <col min="3090" max="3090" width="6.28515625" style="1" customWidth="1"/>
+    <col min="3091" max="3329" width="7.7109375" style="1"/>
+    <col min="3330" max="3330" width="3.7109375" style="1" customWidth="1"/>
+    <col min="3331" max="3331" width="9.140625" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="24.7109375" style="1" customWidth="1"/>
+    <col min="3333" max="3333" width="6" style="1" customWidth="1"/>
+    <col min="3334" max="3334" width="6.140625" style="1" customWidth="1"/>
+    <col min="3335" max="3335" width="5.5703125" style="1" customWidth="1"/>
+    <col min="3336" max="3336" width="4.85546875" style="1" customWidth="1"/>
+    <col min="3337" max="3337" width="4.140625" style="1" customWidth="1"/>
+    <col min="3338" max="3339" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="3340" max="3340" width="9.7109375" style="1" customWidth="1"/>
+    <col min="3341" max="3341" width="3.7109375" style="1" customWidth="1"/>
+    <col min="3342" max="3342" width="2.42578125" style="1" customWidth="1"/>
+    <col min="3343" max="3343" width="3.7109375" style="1" customWidth="1"/>
+    <col min="3344" max="3344" width="6.5703125" style="1" customWidth="1"/>
+    <col min="3345" max="3345" width="2.42578125" style="1" customWidth="1"/>
+    <col min="3346" max="3346" width="6.28515625" style="1" customWidth="1"/>
+    <col min="3347" max="3585" width="7.7109375" style="1"/>
+    <col min="3586" max="3586" width="3.7109375" style="1" customWidth="1"/>
+    <col min="3587" max="3587" width="9.140625" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="24.7109375" style="1" customWidth="1"/>
+    <col min="3589" max="3589" width="6" style="1" customWidth="1"/>
+    <col min="3590" max="3590" width="6.140625" style="1" customWidth="1"/>
+    <col min="3591" max="3591" width="5.5703125" style="1" customWidth="1"/>
+    <col min="3592" max="3592" width="4.85546875" style="1" customWidth="1"/>
+    <col min="3593" max="3593" width="4.140625" style="1" customWidth="1"/>
+    <col min="3594" max="3595" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="3596" max="3596" width="9.7109375" style="1" customWidth="1"/>
+    <col min="3597" max="3597" width="3.7109375" style="1" customWidth="1"/>
+    <col min="3598" max="3598" width="2.42578125" style="1" customWidth="1"/>
+    <col min="3599" max="3599" width="3.7109375" style="1" customWidth="1"/>
+    <col min="3600" max="3600" width="6.5703125" style="1" customWidth="1"/>
+    <col min="3601" max="3601" width="2.42578125" style="1" customWidth="1"/>
+    <col min="3602" max="3602" width="6.28515625" style="1" customWidth="1"/>
+    <col min="3603" max="3841" width="7.7109375" style="1"/>
+    <col min="3842" max="3842" width="3.7109375" style="1" customWidth="1"/>
+    <col min="3843" max="3843" width="9.140625" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="24.7109375" style="1" customWidth="1"/>
+    <col min="3845" max="3845" width="6" style="1" customWidth="1"/>
+    <col min="3846" max="3846" width="6.140625" style="1" customWidth="1"/>
+    <col min="3847" max="3847" width="5.5703125" style="1" customWidth="1"/>
+    <col min="3848" max="3848" width="4.85546875" style="1" customWidth="1"/>
+    <col min="3849" max="3849" width="4.140625" style="1" customWidth="1"/>
+    <col min="3850" max="3851" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="3852" max="3852" width="9.7109375" style="1" customWidth="1"/>
+    <col min="3853" max="3853" width="3.7109375" style="1" customWidth="1"/>
+    <col min="3854" max="3854" width="2.42578125" style="1" customWidth="1"/>
+    <col min="3855" max="3855" width="3.7109375" style="1" customWidth="1"/>
+    <col min="3856" max="3856" width="6.5703125" style="1" customWidth="1"/>
+    <col min="3857" max="3857" width="2.42578125" style="1" customWidth="1"/>
+    <col min="3858" max="3858" width="6.28515625" style="1" customWidth="1"/>
+    <col min="3859" max="4097" width="7.7109375" style="1"/>
+    <col min="4098" max="4098" width="3.7109375" style="1" customWidth="1"/>
+    <col min="4099" max="4099" width="9.140625" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="24.7109375" style="1" customWidth="1"/>
+    <col min="4101" max="4101" width="6" style="1" customWidth="1"/>
+    <col min="4102" max="4102" width="6.140625" style="1" customWidth="1"/>
+    <col min="4103" max="4103" width="5.5703125" style="1" customWidth="1"/>
+    <col min="4104" max="4104" width="4.85546875" style="1" customWidth="1"/>
+    <col min="4105" max="4105" width="4.140625" style="1" customWidth="1"/>
+    <col min="4106" max="4107" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="4108" max="4108" width="9.7109375" style="1" customWidth="1"/>
+    <col min="4109" max="4109" width="3.7109375" style="1" customWidth="1"/>
+    <col min="4110" max="4110" width="2.42578125" style="1" customWidth="1"/>
+    <col min="4111" max="4111" width="3.7109375" style="1" customWidth="1"/>
+    <col min="4112" max="4112" width="6.5703125" style="1" customWidth="1"/>
+    <col min="4113" max="4113" width="2.42578125" style="1" customWidth="1"/>
+    <col min="4114" max="4114" width="6.28515625" style="1" customWidth="1"/>
+    <col min="4115" max="4353" width="7.7109375" style="1"/>
+    <col min="4354" max="4354" width="3.7109375" style="1" customWidth="1"/>
+    <col min="4355" max="4355" width="9.140625" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="24.7109375" style="1" customWidth="1"/>
+    <col min="4357" max="4357" width="6" style="1" customWidth="1"/>
+    <col min="4358" max="4358" width="6.140625" style="1" customWidth="1"/>
+    <col min="4359" max="4359" width="5.5703125" style="1" customWidth="1"/>
+    <col min="4360" max="4360" width="4.85546875" style="1" customWidth="1"/>
+    <col min="4361" max="4361" width="4.140625" style="1" customWidth="1"/>
+    <col min="4362" max="4363" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="4364" max="4364" width="9.7109375" style="1" customWidth="1"/>
+    <col min="4365" max="4365" width="3.7109375" style="1" customWidth="1"/>
+    <col min="4366" max="4366" width="2.42578125" style="1" customWidth="1"/>
+    <col min="4367" max="4367" width="3.7109375" style="1" customWidth="1"/>
+    <col min="4368" max="4368" width="6.5703125" style="1" customWidth="1"/>
+    <col min="4369" max="4369" width="2.42578125" style="1" customWidth="1"/>
+    <col min="4370" max="4370" width="6.28515625" style="1" customWidth="1"/>
+    <col min="4371" max="4609" width="7.7109375" style="1"/>
+    <col min="4610" max="4610" width="3.7109375" style="1" customWidth="1"/>
+    <col min="4611" max="4611" width="9.140625" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="24.7109375" style="1" customWidth="1"/>
+    <col min="4613" max="4613" width="6" style="1" customWidth="1"/>
+    <col min="4614" max="4614" width="6.140625" style="1" customWidth="1"/>
+    <col min="4615" max="4615" width="5.5703125" style="1" customWidth="1"/>
+    <col min="4616" max="4616" width="4.85546875" style="1" customWidth="1"/>
+    <col min="4617" max="4617" width="4.140625" style="1" customWidth="1"/>
+    <col min="4618" max="4619" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="4620" max="4620" width="9.7109375" style="1" customWidth="1"/>
+    <col min="4621" max="4621" width="3.7109375" style="1" customWidth="1"/>
+    <col min="4622" max="4622" width="2.42578125" style="1" customWidth="1"/>
+    <col min="4623" max="4623" width="3.7109375" style="1" customWidth="1"/>
+    <col min="4624" max="4624" width="6.5703125" style="1" customWidth="1"/>
+    <col min="4625" max="4625" width="2.42578125" style="1" customWidth="1"/>
+    <col min="4626" max="4626" width="6.28515625" style="1" customWidth="1"/>
+    <col min="4627" max="4865" width="7.7109375" style="1"/>
+    <col min="4866" max="4866" width="3.7109375" style="1" customWidth="1"/>
+    <col min="4867" max="4867" width="9.140625" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="24.7109375" style="1" customWidth="1"/>
+    <col min="4869" max="4869" width="6" style="1" customWidth="1"/>
+    <col min="4870" max="4870" width="6.140625" style="1" customWidth="1"/>
+    <col min="4871" max="4871" width="5.5703125" style="1" customWidth="1"/>
+    <col min="4872" max="4872" width="4.85546875" style="1" customWidth="1"/>
+    <col min="4873" max="4873" width="4.140625" style="1" customWidth="1"/>
+    <col min="4874" max="4875" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="4876" max="4876" width="9.7109375" style="1" customWidth="1"/>
+    <col min="4877" max="4877" width="3.7109375" style="1" customWidth="1"/>
+    <col min="4878" max="4878" width="2.42578125" style="1" customWidth="1"/>
+    <col min="4879" max="4879" width="3.7109375" style="1" customWidth="1"/>
+    <col min="4880" max="4880" width="6.5703125" style="1" customWidth="1"/>
+    <col min="4881" max="4881" width="2.42578125" style="1" customWidth="1"/>
+    <col min="4882" max="4882" width="6.28515625" style="1" customWidth="1"/>
+    <col min="4883" max="5121" width="7.7109375" style="1"/>
+    <col min="5122" max="5122" width="3.7109375" style="1" customWidth="1"/>
+    <col min="5123" max="5123" width="9.140625" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="24.7109375" style="1" customWidth="1"/>
+    <col min="5125" max="5125" width="6" style="1" customWidth="1"/>
+    <col min="5126" max="5126" width="6.140625" style="1" customWidth="1"/>
+    <col min="5127" max="5127" width="5.5703125" style="1" customWidth="1"/>
+    <col min="5128" max="5128" width="4.85546875" style="1" customWidth="1"/>
+    <col min="5129" max="5129" width="4.140625" style="1" customWidth="1"/>
+    <col min="5130" max="5131" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="5132" max="5132" width="9.7109375" style="1" customWidth="1"/>
+    <col min="5133" max="5133" width="3.7109375" style="1" customWidth="1"/>
+    <col min="5134" max="5134" width="2.42578125" style="1" customWidth="1"/>
+    <col min="5135" max="5135" width="3.7109375" style="1" customWidth="1"/>
+    <col min="5136" max="5136" width="6.5703125" style="1" customWidth="1"/>
+    <col min="5137" max="5137" width="2.42578125" style="1" customWidth="1"/>
+    <col min="5138" max="5138" width="6.28515625" style="1" customWidth="1"/>
+    <col min="5139" max="5377" width="7.7109375" style="1"/>
+    <col min="5378" max="5378" width="3.7109375" style="1" customWidth="1"/>
+    <col min="5379" max="5379" width="9.140625" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="24.7109375" style="1" customWidth="1"/>
+    <col min="5381" max="5381" width="6" style="1" customWidth="1"/>
+    <col min="5382" max="5382" width="6.140625" style="1" customWidth="1"/>
+    <col min="5383" max="5383" width="5.5703125" style="1" customWidth="1"/>
+    <col min="5384" max="5384" width="4.85546875" style="1" customWidth="1"/>
+    <col min="5385" max="5385" width="4.140625" style="1" customWidth="1"/>
+    <col min="5386" max="5387" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="5388" max="5388" width="9.7109375" style="1" customWidth="1"/>
+    <col min="5389" max="5389" width="3.7109375" style="1" customWidth="1"/>
+    <col min="5390" max="5390" width="2.42578125" style="1" customWidth="1"/>
+    <col min="5391" max="5391" width="3.7109375" style="1" customWidth="1"/>
+    <col min="5392" max="5392" width="6.5703125" style="1" customWidth="1"/>
+    <col min="5393" max="5393" width="2.42578125" style="1" customWidth="1"/>
+    <col min="5394" max="5394" width="6.28515625" style="1" customWidth="1"/>
+    <col min="5395" max="5633" width="7.7109375" style="1"/>
+    <col min="5634" max="5634" width="3.7109375" style="1" customWidth="1"/>
+    <col min="5635" max="5635" width="9.140625" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="24.7109375" style="1" customWidth="1"/>
+    <col min="5637" max="5637" width="6" style="1" customWidth="1"/>
+    <col min="5638" max="5638" width="6.140625" style="1" customWidth="1"/>
+    <col min="5639" max="5639" width="5.5703125" style="1" customWidth="1"/>
+    <col min="5640" max="5640" width="4.85546875" style="1" customWidth="1"/>
+    <col min="5641" max="5641" width="4.140625" style="1" customWidth="1"/>
+    <col min="5642" max="5643" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="5644" max="5644" width="9.7109375" style="1" customWidth="1"/>
+    <col min="5645" max="5645" width="3.7109375" style="1" customWidth="1"/>
+    <col min="5646" max="5646" width="2.42578125" style="1" customWidth="1"/>
+    <col min="5647" max="5647" width="3.7109375" style="1" customWidth="1"/>
+    <col min="5648" max="5648" width="6.5703125" style="1" customWidth="1"/>
+    <col min="5649" max="5649" width="2.42578125" style="1" customWidth="1"/>
+    <col min="5650" max="5650" width="6.28515625" style="1" customWidth="1"/>
+    <col min="5651" max="5889" width="7.7109375" style="1"/>
+    <col min="5890" max="5890" width="3.7109375" style="1" customWidth="1"/>
+    <col min="5891" max="5891" width="9.140625" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="24.7109375" style="1" customWidth="1"/>
+    <col min="5893" max="5893" width="6" style="1" customWidth="1"/>
+    <col min="5894" max="5894" width="6.140625" style="1" customWidth="1"/>
+    <col min="5895" max="5895" width="5.5703125" style="1" customWidth="1"/>
+    <col min="5896" max="5896" width="4.85546875" style="1" customWidth="1"/>
+    <col min="5897" max="5897" width="4.140625" style="1" customWidth="1"/>
+    <col min="5898" max="5899" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="5900" max="5900" width="9.7109375" style="1" customWidth="1"/>
+    <col min="5901" max="5901" width="3.7109375" style="1" customWidth="1"/>
+    <col min="5902" max="5902" width="2.42578125" style="1" customWidth="1"/>
+    <col min="5903" max="5903" width="3.7109375" style="1" customWidth="1"/>
+    <col min="5904" max="5904" width="6.5703125" style="1" customWidth="1"/>
+    <col min="5905" max="5905" width="2.42578125" style="1" customWidth="1"/>
+    <col min="5906" max="5906" width="6.28515625" style="1" customWidth="1"/>
+    <col min="5907" max="6145" width="7.7109375" style="1"/>
+    <col min="6146" max="6146" width="3.7109375" style="1" customWidth="1"/>
+    <col min="6147" max="6147" width="9.140625" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="24.7109375" style="1" customWidth="1"/>
+    <col min="6149" max="6149" width="6" style="1" customWidth="1"/>
+    <col min="6150" max="6150" width="6.140625" style="1" customWidth="1"/>
+    <col min="6151" max="6151" width="5.5703125" style="1" customWidth="1"/>
+    <col min="6152" max="6152" width="4.85546875" style="1" customWidth="1"/>
+    <col min="6153" max="6153" width="4.140625" style="1" customWidth="1"/>
+    <col min="6154" max="6155" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="6156" max="6156" width="9.7109375" style="1" customWidth="1"/>
+    <col min="6157" max="6157" width="3.7109375" style="1" customWidth="1"/>
+    <col min="6158" max="6158" width="2.42578125" style="1" customWidth="1"/>
+    <col min="6159" max="6159" width="3.7109375" style="1" customWidth="1"/>
+    <col min="6160" max="6160" width="6.5703125" style="1" customWidth="1"/>
+    <col min="6161" max="6161" width="2.42578125" style="1" customWidth="1"/>
+    <col min="6162" max="6162" width="6.28515625" style="1" customWidth="1"/>
+    <col min="6163" max="6401" width="7.7109375" style="1"/>
+    <col min="6402" max="6402" width="3.7109375" style="1" customWidth="1"/>
+    <col min="6403" max="6403" width="9.140625" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="24.7109375" style="1" customWidth="1"/>
+    <col min="6405" max="6405" width="6" style="1" customWidth="1"/>
+    <col min="6406" max="6406" width="6.140625" style="1" customWidth="1"/>
+    <col min="6407" max="6407" width="5.5703125" style="1" customWidth="1"/>
+    <col min="6408" max="6408" width="4.85546875" style="1" customWidth="1"/>
+    <col min="6409" max="6409" width="4.140625" style="1" customWidth="1"/>
+    <col min="6410" max="6411" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="6412" max="6412" width="9.7109375" style="1" customWidth="1"/>
+    <col min="6413" max="6413" width="3.7109375" style="1" customWidth="1"/>
+    <col min="6414" max="6414" width="2.42578125" style="1" customWidth="1"/>
+    <col min="6415" max="6415" width="3.7109375" style="1" customWidth="1"/>
+    <col min="6416" max="6416" width="6.5703125" style="1" customWidth="1"/>
+    <col min="6417" max="6417" width="2.42578125" style="1" customWidth="1"/>
+    <col min="6418" max="6418" width="6.28515625" style="1" customWidth="1"/>
+    <col min="6419" max="6657" width="7.7109375" style="1"/>
+    <col min="6658" max="6658" width="3.7109375" style="1" customWidth="1"/>
+    <col min="6659" max="6659" width="9.140625" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="24.7109375" style="1" customWidth="1"/>
+    <col min="6661" max="6661" width="6" style="1" customWidth="1"/>
+    <col min="6662" max="6662" width="6.140625" style="1" customWidth="1"/>
+    <col min="6663" max="6663" width="5.5703125" style="1" customWidth="1"/>
+    <col min="6664" max="6664" width="4.85546875" style="1" customWidth="1"/>
+    <col min="6665" max="6665" width="4.140625" style="1" customWidth="1"/>
+    <col min="6666" max="6667" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="6668" max="6668" width="9.7109375" style="1" customWidth="1"/>
+    <col min="6669" max="6669" width="3.7109375" style="1" customWidth="1"/>
+    <col min="6670" max="6670" width="2.42578125" style="1" customWidth="1"/>
+    <col min="6671" max="6671" width="3.7109375" style="1" customWidth="1"/>
+    <col min="6672" max="6672" width="6.5703125" style="1" customWidth="1"/>
+    <col min="6673" max="6673" width="2.42578125" style="1" customWidth="1"/>
+    <col min="6674" max="6674" width="6.28515625" style="1" customWidth="1"/>
+    <col min="6675" max="6913" width="7.7109375" style="1"/>
+    <col min="6914" max="6914" width="3.7109375" style="1" customWidth="1"/>
+    <col min="6915" max="6915" width="9.140625" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="24.7109375" style="1" customWidth="1"/>
+    <col min="6917" max="6917" width="6" style="1" customWidth="1"/>
+    <col min="6918" max="6918" width="6.140625" style="1" customWidth="1"/>
+    <col min="6919" max="6919" width="5.5703125" style="1" customWidth="1"/>
+    <col min="6920" max="6920" width="4.85546875" style="1" customWidth="1"/>
+    <col min="6921" max="6921" width="4.140625" style="1" customWidth="1"/>
+    <col min="6922" max="6923" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="6924" max="6924" width="9.7109375" style="1" customWidth="1"/>
+    <col min="6925" max="6925" width="3.7109375" style="1" customWidth="1"/>
+    <col min="6926" max="6926" width="2.42578125" style="1" customWidth="1"/>
+    <col min="6927" max="6927" width="3.7109375" style="1" customWidth="1"/>
+    <col min="6928" max="6928" width="6.5703125" style="1" customWidth="1"/>
+    <col min="6929" max="6929" width="2.42578125" style="1" customWidth="1"/>
+    <col min="6930" max="6930" width="6.28515625" style="1" customWidth="1"/>
+    <col min="6931" max="7169" width="7.7109375" style="1"/>
+    <col min="7170" max="7170" width="3.7109375" style="1" customWidth="1"/>
+    <col min="7171" max="7171" width="9.140625" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="24.7109375" style="1" customWidth="1"/>
+    <col min="7173" max="7173" width="6" style="1" customWidth="1"/>
+    <col min="7174" max="7174" width="6.140625" style="1" customWidth="1"/>
+    <col min="7175" max="7175" width="5.5703125" style="1" customWidth="1"/>
+    <col min="7176" max="7176" width="4.85546875" style="1" customWidth="1"/>
+    <col min="7177" max="7177" width="4.140625" style="1" customWidth="1"/>
+    <col min="7178" max="7179" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="7180" max="7180" width="9.7109375" style="1" customWidth="1"/>
+    <col min="7181" max="7181" width="3.7109375" style="1" customWidth="1"/>
+    <col min="7182" max="7182" width="2.42578125" style="1" customWidth="1"/>
+    <col min="7183" max="7183" width="3.7109375" style="1" customWidth="1"/>
+    <col min="7184" max="7184" width="6.5703125" style="1" customWidth="1"/>
+    <col min="7185" max="7185" width="2.42578125" style="1" customWidth="1"/>
+    <col min="7186" max="7186" width="6.28515625" style="1" customWidth="1"/>
+    <col min="7187" max="7425" width="7.7109375" style="1"/>
+    <col min="7426" max="7426" width="3.7109375" style="1" customWidth="1"/>
+    <col min="7427" max="7427" width="9.140625" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="24.7109375" style="1" customWidth="1"/>
+    <col min="7429" max="7429" width="6" style="1" customWidth="1"/>
+    <col min="7430" max="7430" width="6.140625" style="1" customWidth="1"/>
+    <col min="7431" max="7431" width="5.5703125" style="1" customWidth="1"/>
+    <col min="7432" max="7432" width="4.85546875" style="1" customWidth="1"/>
+    <col min="7433" max="7433" width="4.140625" style="1" customWidth="1"/>
+    <col min="7434" max="7435" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="7436" max="7436" width="9.7109375" style="1" customWidth="1"/>
+    <col min="7437" max="7437" width="3.7109375" style="1" customWidth="1"/>
+    <col min="7438" max="7438" width="2.42578125" style="1" customWidth="1"/>
+    <col min="7439" max="7439" width="3.7109375" style="1" customWidth="1"/>
+    <col min="7440" max="7440" width="6.5703125" style="1" customWidth="1"/>
+    <col min="7441" max="7441" width="2.42578125" style="1" customWidth="1"/>
+    <col min="7442" max="7442" width="6.28515625" style="1" customWidth="1"/>
+    <col min="7443" max="7681" width="7.7109375" style="1"/>
+    <col min="7682" max="7682" width="3.7109375" style="1" customWidth="1"/>
+    <col min="7683" max="7683" width="9.140625" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="24.7109375" style="1" customWidth="1"/>
+    <col min="7685" max="7685" width="6" style="1" customWidth="1"/>
+    <col min="7686" max="7686" width="6.140625" style="1" customWidth="1"/>
+    <col min="7687" max="7687" width="5.5703125" style="1" customWidth="1"/>
+    <col min="7688" max="7688" width="4.85546875" style="1" customWidth="1"/>
+    <col min="7689" max="7689" width="4.140625" style="1" customWidth="1"/>
+    <col min="7690" max="7691" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="7692" max="7692" width="9.7109375" style="1" customWidth="1"/>
+    <col min="7693" max="7693" width="3.7109375" style="1" customWidth="1"/>
+    <col min="7694" max="7694" width="2.42578125" style="1" customWidth="1"/>
+    <col min="7695" max="7695" width="3.7109375" style="1" customWidth="1"/>
+    <col min="7696" max="7696" width="6.5703125" style="1" customWidth="1"/>
+    <col min="7697" max="7697" width="2.42578125" style="1" customWidth="1"/>
+    <col min="7698" max="7698" width="6.28515625" style="1" customWidth="1"/>
+    <col min="7699" max="7937" width="7.7109375" style="1"/>
+    <col min="7938" max="7938" width="3.7109375" style="1" customWidth="1"/>
+    <col min="7939" max="7939" width="9.140625" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="24.7109375" style="1" customWidth="1"/>
+    <col min="7941" max="7941" width="6" style="1" customWidth="1"/>
+    <col min="7942" max="7942" width="6.140625" style="1" customWidth="1"/>
+    <col min="7943" max="7943" width="5.5703125" style="1" customWidth="1"/>
+    <col min="7944" max="7944" width="4.85546875" style="1" customWidth="1"/>
+    <col min="7945" max="7945" width="4.140625" style="1" customWidth="1"/>
+    <col min="7946" max="7947" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="7948" max="7948" width="9.7109375" style="1" customWidth="1"/>
+    <col min="7949" max="7949" width="3.7109375" style="1" customWidth="1"/>
+    <col min="7950" max="7950" width="2.42578125" style="1" customWidth="1"/>
+    <col min="7951" max="7951" width="3.7109375" style="1" customWidth="1"/>
+    <col min="7952" max="7952" width="6.5703125" style="1" customWidth="1"/>
+    <col min="7953" max="7953" width="2.42578125" style="1" customWidth="1"/>
+    <col min="7954" max="7954" width="6.28515625" style="1" customWidth="1"/>
+    <col min="7955" max="8193" width="7.7109375" style="1"/>
+    <col min="8194" max="8194" width="3.7109375" style="1" customWidth="1"/>
+    <col min="8195" max="8195" width="9.140625" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="24.7109375" style="1" customWidth="1"/>
+    <col min="8197" max="8197" width="6" style="1" customWidth="1"/>
+    <col min="8198" max="8198" width="6.140625" style="1" customWidth="1"/>
+    <col min="8199" max="8199" width="5.5703125" style="1" customWidth="1"/>
+    <col min="8200" max="8200" width="4.85546875" style="1" customWidth="1"/>
+    <col min="8201" max="8201" width="4.140625" style="1" customWidth="1"/>
+    <col min="8202" max="8203" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="8204" max="8204" width="9.7109375" style="1" customWidth="1"/>
+    <col min="8205" max="8205" width="3.7109375" style="1" customWidth="1"/>
+    <col min="8206" max="8206" width="2.42578125" style="1" customWidth="1"/>
+    <col min="8207" max="8207" width="3.7109375" style="1" customWidth="1"/>
+    <col min="8208" max="8208" width="6.5703125" style="1" customWidth="1"/>
+    <col min="8209" max="8209" width="2.42578125" style="1" customWidth="1"/>
+    <col min="8210" max="8210" width="6.28515625" style="1" customWidth="1"/>
+    <col min="8211" max="8449" width="7.7109375" style="1"/>
+    <col min="8450" max="8450" width="3.7109375" style="1" customWidth="1"/>
+    <col min="8451" max="8451" width="9.140625" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="24.7109375" style="1" customWidth="1"/>
+    <col min="8453" max="8453" width="6" style="1" customWidth="1"/>
+    <col min="8454" max="8454" width="6.140625" style="1" customWidth="1"/>
+    <col min="8455" max="8455" width="5.5703125" style="1" customWidth="1"/>
+    <col min="8456" max="8456" width="4.85546875" style="1" customWidth="1"/>
+    <col min="8457" max="8457" width="4.140625" style="1" customWidth="1"/>
+    <col min="8458" max="8459" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="8460" max="8460" width="9.7109375" style="1" customWidth="1"/>
+    <col min="8461" max="8461" width="3.7109375" style="1" customWidth="1"/>
+    <col min="8462" max="8462" width="2.42578125" style="1" customWidth="1"/>
+    <col min="8463" max="8463" width="3.7109375" style="1" customWidth="1"/>
+    <col min="8464" max="8464" width="6.5703125" style="1" customWidth="1"/>
+    <col min="8465" max="8465" width="2.42578125" style="1" customWidth="1"/>
+    <col min="8466" max="8466" width="6.28515625" style="1" customWidth="1"/>
+    <col min="8467" max="8705" width="7.7109375" style="1"/>
+    <col min="8706" max="8706" width="3.7109375" style="1" customWidth="1"/>
+    <col min="8707" max="8707" width="9.140625" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="24.7109375" style="1" customWidth="1"/>
+    <col min="8709" max="8709" width="6" style="1" customWidth="1"/>
+    <col min="8710" max="8710" width="6.140625" style="1" customWidth="1"/>
+    <col min="8711" max="8711" width="5.5703125" style="1" customWidth="1"/>
+    <col min="8712" max="8712" width="4.85546875" style="1" customWidth="1"/>
+    <col min="8713" max="8713" width="4.140625" style="1" customWidth="1"/>
+    <col min="8714" max="8715" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="8716" max="8716" width="9.7109375" style="1" customWidth="1"/>
+    <col min="8717" max="8717" width="3.7109375" style="1" customWidth="1"/>
+    <col min="8718" max="8718" width="2.42578125" style="1" customWidth="1"/>
+    <col min="8719" max="8719" width="3.7109375" style="1" customWidth="1"/>
+    <col min="8720" max="8720" width="6.5703125" style="1" customWidth="1"/>
+    <col min="8721" max="8721" width="2.42578125" style="1" customWidth="1"/>
+    <col min="8722" max="8722" width="6.28515625" style="1" customWidth="1"/>
+    <col min="8723" max="8961" width="7.7109375" style="1"/>
+    <col min="8962" max="8962" width="3.7109375" style="1" customWidth="1"/>
+    <col min="8963" max="8963" width="9.140625" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="24.7109375" style="1" customWidth="1"/>
+    <col min="8965" max="8965" width="6" style="1" customWidth="1"/>
+    <col min="8966" max="8966" width="6.140625" style="1" customWidth="1"/>
+    <col min="8967" max="8967" width="5.5703125" style="1" customWidth="1"/>
+    <col min="8968" max="8968" width="4.85546875" style="1" customWidth="1"/>
+    <col min="8969" max="8969" width="4.140625" style="1" customWidth="1"/>
+    <col min="8970" max="8971" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="8972" max="8972" width="9.7109375" style="1" customWidth="1"/>
+    <col min="8973" max="8973" width="3.7109375" style="1" customWidth="1"/>
+    <col min="8974" max="8974" width="2.42578125" style="1" customWidth="1"/>
+    <col min="8975" max="8975" width="3.7109375" style="1" customWidth="1"/>
+    <col min="8976" max="8976" width="6.5703125" style="1" customWidth="1"/>
+    <col min="8977" max="8977" width="2.42578125" style="1" customWidth="1"/>
+    <col min="8978" max="8978" width="6.28515625" style="1" customWidth="1"/>
+    <col min="8979" max="9217" width="7.7109375" style="1"/>
+    <col min="9218" max="9218" width="3.7109375" style="1" customWidth="1"/>
+    <col min="9219" max="9219" width="9.140625" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="24.7109375" style="1" customWidth="1"/>
+    <col min="9221" max="9221" width="6" style="1" customWidth="1"/>
+    <col min="9222" max="9222" width="6.140625" style="1" customWidth="1"/>
+    <col min="9223" max="9223" width="5.5703125" style="1" customWidth="1"/>
+    <col min="9224" max="9224" width="4.85546875" style="1" customWidth="1"/>
+    <col min="9225" max="9225" width="4.140625" style="1" customWidth="1"/>
+    <col min="9226" max="9227" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="9228" max="9228" width="9.7109375" style="1" customWidth="1"/>
+    <col min="9229" max="9229" width="3.7109375" style="1" customWidth="1"/>
+    <col min="9230" max="9230" width="2.42578125" style="1" customWidth="1"/>
+    <col min="9231" max="9231" width="3.7109375" style="1" customWidth="1"/>
+    <col min="9232" max="9232" width="6.5703125" style="1" customWidth="1"/>
+    <col min="9233" max="9233" width="2.42578125" style="1" customWidth="1"/>
+    <col min="9234" max="9234" width="6.28515625" style="1" customWidth="1"/>
+    <col min="9235" max="9473" width="7.7109375" style="1"/>
+    <col min="9474" max="9474" width="3.7109375" style="1" customWidth="1"/>
+    <col min="9475" max="9475" width="9.140625" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="24.7109375" style="1" customWidth="1"/>
+    <col min="9477" max="9477" width="6" style="1" customWidth="1"/>
+    <col min="9478" max="9478" width="6.140625" style="1" customWidth="1"/>
+    <col min="9479" max="9479" width="5.5703125" style="1" customWidth="1"/>
+    <col min="9480" max="9480" width="4.85546875" style="1" customWidth="1"/>
+    <col min="9481" max="9481" width="4.140625" style="1" customWidth="1"/>
+    <col min="9482" max="9483" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="9484" max="9484" width="9.7109375" style="1" customWidth="1"/>
+    <col min="9485" max="9485" width="3.7109375" style="1" customWidth="1"/>
+    <col min="9486" max="9486" width="2.42578125" style="1" customWidth="1"/>
+    <col min="9487" max="9487" width="3.7109375" style="1" customWidth="1"/>
+    <col min="9488" max="9488" width="6.5703125" style="1" customWidth="1"/>
+    <col min="9489" max="9489" width="2.42578125" style="1" customWidth="1"/>
+    <col min="9490" max="9490" width="6.28515625" style="1" customWidth="1"/>
+    <col min="9491" max="9729" width="7.7109375" style="1"/>
+    <col min="9730" max="9730" width="3.7109375" style="1" customWidth="1"/>
+    <col min="9731" max="9731" width="9.140625" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="24.7109375" style="1" customWidth="1"/>
+    <col min="9733" max="9733" width="6" style="1" customWidth="1"/>
+    <col min="9734" max="9734" width="6.140625" style="1" customWidth="1"/>
+    <col min="9735" max="9735" width="5.5703125" style="1" customWidth="1"/>
+    <col min="9736" max="9736" width="4.85546875" style="1" customWidth="1"/>
+    <col min="9737" max="9737" width="4.140625" style="1" customWidth="1"/>
+    <col min="9738" max="9739" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="9740" max="9740" width="9.7109375" style="1" customWidth="1"/>
+    <col min="9741" max="9741" width="3.7109375" style="1" customWidth="1"/>
+    <col min="9742" max="9742" width="2.42578125" style="1" customWidth="1"/>
+    <col min="9743" max="9743" width="3.7109375" style="1" customWidth="1"/>
+    <col min="9744" max="9744" width="6.5703125" style="1" customWidth="1"/>
+    <col min="9745" max="9745" width="2.42578125" style="1" customWidth="1"/>
+    <col min="9746" max="9746" width="6.28515625" style="1" customWidth="1"/>
+    <col min="9747" max="9985" width="7.7109375" style="1"/>
+    <col min="9986" max="9986" width="3.7109375" style="1" customWidth="1"/>
+    <col min="9987" max="9987" width="9.140625" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="24.7109375" style="1" customWidth="1"/>
+    <col min="9989" max="9989" width="6" style="1" customWidth="1"/>
+    <col min="9990" max="9990" width="6.140625" style="1" customWidth="1"/>
+    <col min="9991" max="9991" width="5.5703125" style="1" customWidth="1"/>
+    <col min="9992" max="9992" width="4.85546875" style="1" customWidth="1"/>
+    <col min="9993" max="9993" width="4.140625" style="1" customWidth="1"/>
+    <col min="9994" max="9995" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="9996" max="9996" width="9.7109375" style="1" customWidth="1"/>
+    <col min="9997" max="9997" width="3.7109375" style="1" customWidth="1"/>
+    <col min="9998" max="9998" width="2.42578125" style="1" customWidth="1"/>
+    <col min="9999" max="9999" width="3.7109375" style="1" customWidth="1"/>
+    <col min="10000" max="10000" width="6.5703125" style="1" customWidth="1"/>
+    <col min="10001" max="10001" width="2.42578125" style="1" customWidth="1"/>
+    <col min="10002" max="10002" width="6.28515625" style="1" customWidth="1"/>
+    <col min="10003" max="10241" width="7.7109375" style="1"/>
+    <col min="10242" max="10242" width="3.7109375" style="1" customWidth="1"/>
+    <col min="10243" max="10243" width="9.140625" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="24.7109375" style="1" customWidth="1"/>
+    <col min="10245" max="10245" width="6" style="1" customWidth="1"/>
+    <col min="10246" max="10246" width="6.140625" style="1" customWidth="1"/>
+    <col min="10247" max="10247" width="5.5703125" style="1" customWidth="1"/>
+    <col min="10248" max="10248" width="4.85546875" style="1" customWidth="1"/>
+    <col min="10249" max="10249" width="4.140625" style="1" customWidth="1"/>
+    <col min="10250" max="10251" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="10252" max="10252" width="9.7109375" style="1" customWidth="1"/>
+    <col min="10253" max="10253" width="3.7109375" style="1" customWidth="1"/>
+    <col min="10254" max="10254" width="2.42578125" style="1" customWidth="1"/>
+    <col min="10255" max="10255" width="3.7109375" style="1" customWidth="1"/>
+    <col min="10256" max="10256" width="6.5703125" style="1" customWidth="1"/>
+    <col min="10257" max="10257" width="2.42578125" style="1" customWidth="1"/>
+    <col min="10258" max="10258" width="6.28515625" style="1" customWidth="1"/>
+    <col min="10259" max="10497" width="7.7109375" style="1"/>
+    <col min="10498" max="10498" width="3.7109375" style="1" customWidth="1"/>
+    <col min="10499" max="10499" width="9.140625" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="24.7109375" style="1" customWidth="1"/>
+    <col min="10501" max="10501" width="6" style="1" customWidth="1"/>
+    <col min="10502" max="10502" width="6.140625" style="1" customWidth="1"/>
+    <col min="10503" max="10503" width="5.5703125" style="1" customWidth="1"/>
+    <col min="10504" max="10504" width="4.85546875" style="1" customWidth="1"/>
+    <col min="10505" max="10505" width="4.140625" style="1" customWidth="1"/>
+    <col min="10506" max="10507" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="10508" max="10508" width="9.7109375" style="1" customWidth="1"/>
+    <col min="10509" max="10509" width="3.7109375" style="1" customWidth="1"/>
+    <col min="10510" max="10510" width="2.42578125" style="1" customWidth="1"/>
+    <col min="10511" max="10511" width="3.7109375" style="1" customWidth="1"/>
+    <col min="10512" max="10512" width="6.5703125" style="1" customWidth="1"/>
+    <col min="10513" max="10513" width="2.42578125" style="1" customWidth="1"/>
+    <col min="10514" max="10514" width="6.28515625" style="1" customWidth="1"/>
+    <col min="10515" max="10753" width="7.7109375" style="1"/>
+    <col min="10754" max="10754" width="3.7109375" style="1" customWidth="1"/>
+    <col min="10755" max="10755" width="9.140625" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="24.7109375" style="1" customWidth="1"/>
+    <col min="10757" max="10757" width="6" style="1" customWidth="1"/>
+    <col min="10758" max="10758" width="6.140625" style="1" customWidth="1"/>
+    <col min="10759" max="10759" width="5.5703125" style="1" customWidth="1"/>
+    <col min="10760" max="10760" width="4.85546875" style="1" customWidth="1"/>
+    <col min="10761" max="10761" width="4.140625" style="1" customWidth="1"/>
+    <col min="10762" max="10763" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="10764" max="10764" width="9.7109375" style="1" customWidth="1"/>
+    <col min="10765" max="10765" width="3.7109375" style="1" customWidth="1"/>
+    <col min="10766" max="10766" width="2.42578125" style="1" customWidth="1"/>
+    <col min="10767" max="10767" width="3.7109375" style="1" customWidth="1"/>
+    <col min="10768" max="10768" width="6.5703125" style="1" customWidth="1"/>
+    <col min="10769" max="10769" width="2.42578125" style="1" customWidth="1"/>
+    <col min="10770" max="10770" width="6.28515625" style="1" customWidth="1"/>
+    <col min="10771" max="11009" width="7.7109375" style="1"/>
+    <col min="11010" max="11010" width="3.7109375" style="1" customWidth="1"/>
+    <col min="11011" max="11011" width="9.140625" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="24.7109375" style="1" customWidth="1"/>
+    <col min="11013" max="11013" width="6" style="1" customWidth="1"/>
+    <col min="11014" max="11014" width="6.140625" style="1" customWidth="1"/>
+    <col min="11015" max="11015" width="5.5703125" style="1" customWidth="1"/>
+    <col min="11016" max="11016" width="4.85546875" style="1" customWidth="1"/>
+    <col min="11017" max="11017" width="4.140625" style="1" customWidth="1"/>
+    <col min="11018" max="11019" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="11020" max="11020" width="9.7109375" style="1" customWidth="1"/>
+    <col min="11021" max="11021" width="3.7109375" style="1" customWidth="1"/>
+    <col min="11022" max="11022" width="2.42578125" style="1" customWidth="1"/>
+    <col min="11023" max="11023" width="3.7109375" style="1" customWidth="1"/>
+    <col min="11024" max="11024" width="6.5703125" style="1" customWidth="1"/>
+    <col min="11025" max="11025" width="2.42578125" style="1" customWidth="1"/>
+    <col min="11026" max="11026" width="6.28515625" style="1" customWidth="1"/>
+    <col min="11027" max="11265" width="7.7109375" style="1"/>
+    <col min="11266" max="11266" width="3.7109375" style="1" customWidth="1"/>
+    <col min="11267" max="11267" width="9.140625" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="24.7109375" style="1" customWidth="1"/>
+    <col min="11269" max="11269" width="6" style="1" customWidth="1"/>
+    <col min="11270" max="11270" width="6.140625" style="1" customWidth="1"/>
+    <col min="11271" max="11271" width="5.5703125" style="1" customWidth="1"/>
+    <col min="11272" max="11272" width="4.85546875" style="1" customWidth="1"/>
+    <col min="11273" max="11273" width="4.140625" style="1" customWidth="1"/>
+    <col min="11274" max="11275" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="11276" max="11276" width="9.7109375" style="1" customWidth="1"/>
+    <col min="11277" max="11277" width="3.7109375" style="1" customWidth="1"/>
+    <col min="11278" max="11278" width="2.42578125" style="1" customWidth="1"/>
+    <col min="11279" max="11279" width="3.7109375" style="1" customWidth="1"/>
+    <col min="11280" max="11280" width="6.5703125" style="1" customWidth="1"/>
+    <col min="11281" max="11281" width="2.42578125" style="1" customWidth="1"/>
+    <col min="11282" max="11282" width="6.28515625" style="1" customWidth="1"/>
+    <col min="11283" max="11521" width="7.7109375" style="1"/>
+    <col min="11522" max="11522" width="3.7109375" style="1" customWidth="1"/>
+    <col min="11523" max="11523" width="9.140625" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="24.7109375" style="1" customWidth="1"/>
+    <col min="11525" max="11525" width="6" style="1" customWidth="1"/>
+    <col min="11526" max="11526" width="6.140625" style="1" customWidth="1"/>
+    <col min="11527" max="11527" width="5.5703125" style="1" customWidth="1"/>
+    <col min="11528" max="11528" width="4.85546875" style="1" customWidth="1"/>
+    <col min="11529" max="11529" width="4.140625" style="1" customWidth="1"/>
+    <col min="11530" max="11531" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="11532" max="11532" width="9.7109375" style="1" customWidth="1"/>
+    <col min="11533" max="11533" width="3.7109375" style="1" customWidth="1"/>
+    <col min="11534" max="11534" width="2.42578125" style="1" customWidth="1"/>
+    <col min="11535" max="11535" width="3.7109375" style="1" customWidth="1"/>
+    <col min="11536" max="11536" width="6.5703125" style="1" customWidth="1"/>
+    <col min="11537" max="11537" width="2.42578125" style="1" customWidth="1"/>
+    <col min="11538" max="11538" width="6.28515625" style="1" customWidth="1"/>
+    <col min="11539" max="11777" width="7.7109375" style="1"/>
+    <col min="11778" max="11778" width="3.7109375" style="1" customWidth="1"/>
+    <col min="11779" max="11779" width="9.140625" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="24.7109375" style="1" customWidth="1"/>
+    <col min="11781" max="11781" width="6" style="1" customWidth="1"/>
+    <col min="11782" max="11782" width="6.140625" style="1" customWidth="1"/>
+    <col min="11783" max="11783" width="5.5703125" style="1" customWidth="1"/>
+    <col min="11784" max="11784" width="4.85546875" style="1" customWidth="1"/>
+    <col min="11785" max="11785" width="4.140625" style="1" customWidth="1"/>
+    <col min="11786" max="11787" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="11788" max="11788" width="9.7109375" style="1" customWidth="1"/>
+    <col min="11789" max="11789" width="3.7109375" style="1" customWidth="1"/>
+    <col min="11790" max="11790" width="2.42578125" style="1" customWidth="1"/>
+    <col min="11791" max="11791" width="3.7109375" style="1" customWidth="1"/>
+    <col min="11792" max="11792" width="6.5703125" style="1" customWidth="1"/>
+    <col min="11793" max="11793" width="2.42578125" style="1" customWidth="1"/>
+    <col min="11794" max="11794" width="6.28515625" style="1" customWidth="1"/>
+    <col min="11795" max="12033" width="7.7109375" style="1"/>
+    <col min="12034" max="12034" width="3.7109375" style="1" customWidth="1"/>
+    <col min="12035" max="12035" width="9.140625" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="24.7109375" style="1" customWidth="1"/>
+    <col min="12037" max="12037" width="6" style="1" customWidth="1"/>
+    <col min="12038" max="12038" width="6.140625" style="1" customWidth="1"/>
+    <col min="12039" max="12039" width="5.5703125" style="1" customWidth="1"/>
+    <col min="12040" max="12040" width="4.85546875" style="1" customWidth="1"/>
+    <col min="12041" max="12041" width="4.140625" style="1" customWidth="1"/>
+    <col min="12042" max="12043" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="12044" max="12044" width="9.7109375" style="1" customWidth="1"/>
+    <col min="12045" max="12045" width="3.7109375" style="1" customWidth="1"/>
+    <col min="12046" max="12046" width="2.42578125" style="1" customWidth="1"/>
+    <col min="12047" max="12047" width="3.7109375" style="1" customWidth="1"/>
+    <col min="12048" max="12048" width="6.5703125" style="1" customWidth="1"/>
+    <col min="12049" max="12049" width="2.42578125" style="1" customWidth="1"/>
+    <col min="12050" max="12050" width="6.28515625" style="1" customWidth="1"/>
+    <col min="12051" max="12289" width="7.7109375" style="1"/>
+    <col min="12290" max="12290" width="3.7109375" style="1" customWidth="1"/>
+    <col min="12291" max="12291" width="9.140625" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="24.7109375" style="1" customWidth="1"/>
+    <col min="12293" max="12293" width="6" style="1" customWidth="1"/>
+    <col min="12294" max="12294" width="6.140625" style="1" customWidth="1"/>
+    <col min="12295" max="12295" width="5.5703125" style="1" customWidth="1"/>
+    <col min="12296" max="12296" width="4.85546875" style="1" customWidth="1"/>
+    <col min="12297" max="12297" width="4.140625" style="1" customWidth="1"/>
+    <col min="12298" max="12299" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="12300" max="12300" width="9.7109375" style="1" customWidth="1"/>
+    <col min="12301" max="12301" width="3.7109375" style="1" customWidth="1"/>
+    <col min="12302" max="12302" width="2.42578125" style="1" customWidth="1"/>
+    <col min="12303" max="12303" width="3.7109375" style="1" customWidth="1"/>
+    <col min="12304" max="12304" width="6.5703125" style="1" customWidth="1"/>
+    <col min="12305" max="12305" width="2.42578125" style="1" customWidth="1"/>
+    <col min="12306" max="12306" width="6.28515625" style="1" customWidth="1"/>
+    <col min="12307" max="12545" width="7.7109375" style="1"/>
+    <col min="12546" max="12546" width="3.7109375" style="1" customWidth="1"/>
+    <col min="12547" max="12547" width="9.140625" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="24.7109375" style="1" customWidth="1"/>
+    <col min="12549" max="12549" width="6" style="1" customWidth="1"/>
+    <col min="12550" max="12550" width="6.140625" style="1" customWidth="1"/>
+    <col min="12551" max="12551" width="5.5703125" style="1" customWidth="1"/>
+    <col min="12552" max="12552" width="4.85546875" style="1" customWidth="1"/>
+    <col min="12553" max="12553" width="4.140625" style="1" customWidth="1"/>
+    <col min="12554" max="12555" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="12556" max="12556" width="9.7109375" style="1" customWidth="1"/>
+    <col min="12557" max="12557" width="3.7109375" style="1" customWidth="1"/>
+    <col min="12558" max="12558" width="2.42578125" style="1" customWidth="1"/>
+    <col min="12559" max="12559" width="3.7109375" style="1" customWidth="1"/>
+    <col min="12560" max="12560" width="6.5703125" style="1" customWidth="1"/>
+    <col min="12561" max="12561" width="2.42578125" style="1" customWidth="1"/>
+    <col min="12562" max="12562" width="6.28515625" style="1" customWidth="1"/>
+    <col min="12563" max="12801" width="7.7109375" style="1"/>
+    <col min="12802" max="12802" width="3.7109375" style="1" customWidth="1"/>
+    <col min="12803" max="12803" width="9.140625" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="24.7109375" style="1" customWidth="1"/>
+    <col min="12805" max="12805" width="6" style="1" customWidth="1"/>
+    <col min="12806" max="12806" width="6.140625" style="1" customWidth="1"/>
+    <col min="12807" max="12807" width="5.5703125" style="1" customWidth="1"/>
+    <col min="12808" max="12808" width="4.85546875" style="1" customWidth="1"/>
+    <col min="12809" max="12809" width="4.140625" style="1" customWidth="1"/>
+    <col min="12810" max="12811" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="12812" max="12812" width="9.7109375" style="1" customWidth="1"/>
+    <col min="12813" max="12813" width="3.7109375" style="1" customWidth="1"/>
+    <col min="12814" max="12814" width="2.42578125" style="1" customWidth="1"/>
+    <col min="12815" max="12815" width="3.7109375" style="1" customWidth="1"/>
+    <col min="12816" max="12816" width="6.5703125" style="1" customWidth="1"/>
+    <col min="12817" max="12817" width="2.42578125" style="1" customWidth="1"/>
+    <col min="12818" max="12818" width="6.28515625" style="1" customWidth="1"/>
+    <col min="12819" max="13057" width="7.7109375" style="1"/>
+    <col min="13058" max="13058" width="3.7109375" style="1" customWidth="1"/>
+    <col min="13059" max="13059" width="9.140625" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="24.7109375" style="1" customWidth="1"/>
+    <col min="13061" max="13061" width="6" style="1" customWidth="1"/>
+    <col min="13062" max="13062" width="6.140625" style="1" customWidth="1"/>
+    <col min="13063" max="13063" width="5.5703125" style="1" customWidth="1"/>
+    <col min="13064" max="13064" width="4.85546875" style="1" customWidth="1"/>
+    <col min="13065" max="13065" width="4.140625" style="1" customWidth="1"/>
+    <col min="13066" max="13067" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="13068" max="13068" width="9.7109375" style="1" customWidth="1"/>
+    <col min="13069" max="13069" width="3.7109375" style="1" customWidth="1"/>
+    <col min="13070" max="13070" width="2.42578125" style="1" customWidth="1"/>
+    <col min="13071" max="13071" width="3.7109375" style="1" customWidth="1"/>
+    <col min="13072" max="13072" width="6.5703125" style="1" customWidth="1"/>
+    <col min="13073" max="13073" width="2.42578125" style="1" customWidth="1"/>
+    <col min="13074" max="13074" width="6.28515625" style="1" customWidth="1"/>
+    <col min="13075" max="13313" width="7.7109375" style="1"/>
+    <col min="13314" max="13314" width="3.7109375" style="1" customWidth="1"/>
+    <col min="13315" max="13315" width="9.140625" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="24.7109375" style="1" customWidth="1"/>
+    <col min="13317" max="13317" width="6" style="1" customWidth="1"/>
+    <col min="13318" max="13318" width="6.140625" style="1" customWidth="1"/>
+    <col min="13319" max="13319" width="5.5703125" style="1" customWidth="1"/>
+    <col min="13320" max="13320" width="4.85546875" style="1" customWidth="1"/>
+    <col min="13321" max="13321" width="4.140625" style="1" customWidth="1"/>
+    <col min="13322" max="13323" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="13324" max="13324" width="9.7109375" style="1" customWidth="1"/>
+    <col min="13325" max="13325" width="3.7109375" style="1" customWidth="1"/>
+    <col min="13326" max="13326" width="2.42578125" style="1" customWidth="1"/>
+    <col min="13327" max="13327" width="3.7109375" style="1" customWidth="1"/>
+    <col min="13328" max="13328" width="6.5703125" style="1" customWidth="1"/>
+    <col min="13329" max="13329" width="2.42578125" style="1" customWidth="1"/>
+    <col min="13330" max="13330" width="6.28515625" style="1" customWidth="1"/>
+    <col min="13331" max="13569" width="7.7109375" style="1"/>
+    <col min="13570" max="13570" width="3.7109375" style="1" customWidth="1"/>
+    <col min="13571" max="13571" width="9.140625" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="24.7109375" style="1" customWidth="1"/>
+    <col min="13573" max="13573" width="6" style="1" customWidth="1"/>
+    <col min="13574" max="13574" width="6.140625" style="1" customWidth="1"/>
+    <col min="13575" max="13575" width="5.5703125" style="1" customWidth="1"/>
+    <col min="13576" max="13576" width="4.85546875" style="1" customWidth="1"/>
+    <col min="13577" max="13577" width="4.140625" style="1" customWidth="1"/>
+    <col min="13578" max="13579" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="13580" max="13580" width="9.7109375" style="1" customWidth="1"/>
+    <col min="13581" max="13581" width="3.7109375" style="1" customWidth="1"/>
+    <col min="13582" max="13582" width="2.42578125" style="1" customWidth="1"/>
+    <col min="13583" max="13583" width="3.7109375" style="1" customWidth="1"/>
+    <col min="13584" max="13584" width="6.5703125" style="1" customWidth="1"/>
+    <col min="13585" max="13585" width="2.42578125" style="1" customWidth="1"/>
+    <col min="13586" max="13586" width="6.28515625" style="1" customWidth="1"/>
+    <col min="13587" max="13825" width="7.7109375" style="1"/>
+    <col min="13826" max="13826" width="3.7109375" style="1" customWidth="1"/>
+    <col min="13827" max="13827" width="9.140625" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="24.7109375" style="1" customWidth="1"/>
+    <col min="13829" max="13829" width="6" style="1" customWidth="1"/>
+    <col min="13830" max="13830" width="6.140625" style="1" customWidth="1"/>
+    <col min="13831" max="13831" width="5.5703125" style="1" customWidth="1"/>
+    <col min="13832" max="13832" width="4.85546875" style="1" customWidth="1"/>
+    <col min="13833" max="13833" width="4.140625" style="1" customWidth="1"/>
+    <col min="13834" max="13835" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="13836" max="13836" width="9.7109375" style="1" customWidth="1"/>
+    <col min="13837" max="13837" width="3.7109375" style="1" customWidth="1"/>
+    <col min="13838" max="13838" width="2.42578125" style="1" customWidth="1"/>
+    <col min="13839" max="13839" width="3.7109375" style="1" customWidth="1"/>
+    <col min="13840" max="13840" width="6.5703125" style="1" customWidth="1"/>
+    <col min="13841" max="13841" width="2.42578125" style="1" customWidth="1"/>
+    <col min="13842" max="13842" width="6.28515625" style="1" customWidth="1"/>
+    <col min="13843" max="14081" width="7.7109375" style="1"/>
+    <col min="14082" max="14082" width="3.7109375" style="1" customWidth="1"/>
+    <col min="14083" max="14083" width="9.140625" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="24.7109375" style="1" customWidth="1"/>
+    <col min="14085" max="14085" width="6" style="1" customWidth="1"/>
+    <col min="14086" max="14086" width="6.140625" style="1" customWidth="1"/>
+    <col min="14087" max="14087" width="5.5703125" style="1" customWidth="1"/>
+    <col min="14088" max="14088" width="4.85546875" style="1" customWidth="1"/>
+    <col min="14089" max="14089" width="4.140625" style="1" customWidth="1"/>
+    <col min="14090" max="14091" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="14092" max="14092" width="9.7109375" style="1" customWidth="1"/>
+    <col min="14093" max="14093" width="3.7109375" style="1" customWidth="1"/>
+    <col min="14094" max="14094" width="2.42578125" style="1" customWidth="1"/>
+    <col min="14095" max="14095" width="3.7109375" style="1" customWidth="1"/>
+    <col min="14096" max="14096" width="6.5703125" style="1" customWidth="1"/>
+    <col min="14097" max="14097" width="2.42578125" style="1" customWidth="1"/>
+    <col min="14098" max="14098" width="6.28515625" style="1" customWidth="1"/>
+    <col min="14099" max="14337" width="7.7109375" style="1"/>
+    <col min="14338" max="14338" width="3.7109375" style="1" customWidth="1"/>
+    <col min="14339" max="14339" width="9.140625" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="24.7109375" style="1" customWidth="1"/>
+    <col min="14341" max="14341" width="6" style="1" customWidth="1"/>
+    <col min="14342" max="14342" width="6.140625" style="1" customWidth="1"/>
+    <col min="14343" max="14343" width="5.5703125" style="1" customWidth="1"/>
+    <col min="14344" max="14344" width="4.85546875" style="1" customWidth="1"/>
+    <col min="14345" max="14345" width="4.140625" style="1" customWidth="1"/>
+    <col min="14346" max="14347" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="14348" max="14348" width="9.7109375" style="1" customWidth="1"/>
+    <col min="14349" max="14349" width="3.7109375" style="1" customWidth="1"/>
+    <col min="14350" max="14350" width="2.42578125" style="1" customWidth="1"/>
+    <col min="14351" max="14351" width="3.7109375" style="1" customWidth="1"/>
+    <col min="14352" max="14352" width="6.5703125" style="1" customWidth="1"/>
+    <col min="14353" max="14353" width="2.42578125" style="1" customWidth="1"/>
+    <col min="14354" max="14354" width="6.28515625" style="1" customWidth="1"/>
+    <col min="14355" max="14593" width="7.7109375" style="1"/>
+    <col min="14594" max="14594" width="3.7109375" style="1" customWidth="1"/>
+    <col min="14595" max="14595" width="9.140625" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="24.7109375" style="1" customWidth="1"/>
+    <col min="14597" max="14597" width="6" style="1" customWidth="1"/>
+    <col min="14598" max="14598" width="6.140625" style="1" customWidth="1"/>
+    <col min="14599" max="14599" width="5.5703125" style="1" customWidth="1"/>
+    <col min="14600" max="14600" width="4.85546875" style="1" customWidth="1"/>
+    <col min="14601" max="14601" width="4.140625" style="1" customWidth="1"/>
+    <col min="14602" max="14603" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="14604" max="14604" width="9.7109375" style="1" customWidth="1"/>
+    <col min="14605" max="14605" width="3.7109375" style="1" customWidth="1"/>
+    <col min="14606" max="14606" width="2.42578125" style="1" customWidth="1"/>
+    <col min="14607" max="14607" width="3.7109375" style="1" customWidth="1"/>
+    <col min="14608" max="14608" width="6.5703125" style="1" customWidth="1"/>
+    <col min="14609" max="14609" width="2.42578125" style="1" customWidth="1"/>
+    <col min="14610" max="14610" width="6.28515625" style="1" customWidth="1"/>
+    <col min="14611" max="14849" width="7.7109375" style="1"/>
+    <col min="14850" max="14850" width="3.7109375" style="1" customWidth="1"/>
+    <col min="14851" max="14851" width="9.140625" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="24.7109375" style="1" customWidth="1"/>
+    <col min="14853" max="14853" width="6" style="1" customWidth="1"/>
+    <col min="14854" max="14854" width="6.140625" style="1" customWidth="1"/>
+    <col min="14855" max="14855" width="5.5703125" style="1" customWidth="1"/>
+    <col min="14856" max="14856" width="4.85546875" style="1" customWidth="1"/>
+    <col min="14857" max="14857" width="4.140625" style="1" customWidth="1"/>
+    <col min="14858" max="14859" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="14860" max="14860" width="9.7109375" style="1" customWidth="1"/>
+    <col min="14861" max="14861" width="3.7109375" style="1" customWidth="1"/>
+    <col min="14862" max="14862" width="2.42578125" style="1" customWidth="1"/>
+    <col min="14863" max="14863" width="3.7109375" style="1" customWidth="1"/>
+    <col min="14864" max="14864" width="6.5703125" style="1" customWidth="1"/>
+    <col min="14865" max="14865" width="2.42578125" style="1" customWidth="1"/>
+    <col min="14866" max="14866" width="6.28515625" style="1" customWidth="1"/>
+    <col min="14867" max="15105" width="7.7109375" style="1"/>
+    <col min="15106" max="15106" width="3.7109375" style="1" customWidth="1"/>
+    <col min="15107" max="15107" width="9.140625" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="24.7109375" style="1" customWidth="1"/>
+    <col min="15109" max="15109" width="6" style="1" customWidth="1"/>
+    <col min="15110" max="15110" width="6.140625" style="1" customWidth="1"/>
+    <col min="15111" max="15111" width="5.5703125" style="1" customWidth="1"/>
+    <col min="15112" max="15112" width="4.85546875" style="1" customWidth="1"/>
+    <col min="15113" max="15113" width="4.140625" style="1" customWidth="1"/>
+    <col min="15114" max="15115" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="15116" max="15116" width="9.7109375" style="1" customWidth="1"/>
+    <col min="15117" max="15117" width="3.7109375" style="1" customWidth="1"/>
+    <col min="15118" max="15118" width="2.42578125" style="1" customWidth="1"/>
+    <col min="15119" max="15119" width="3.7109375" style="1" customWidth="1"/>
+    <col min="15120" max="15120" width="6.5703125" style="1" customWidth="1"/>
+    <col min="15121" max="15121" width="2.42578125" style="1" customWidth="1"/>
+    <col min="15122" max="15122" width="6.28515625" style="1" customWidth="1"/>
+    <col min="15123" max="15361" width="7.7109375" style="1"/>
+    <col min="15362" max="15362" width="3.7109375" style="1" customWidth="1"/>
+    <col min="15363" max="15363" width="9.140625" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="24.7109375" style="1" customWidth="1"/>
+    <col min="15365" max="15365" width="6" style="1" customWidth="1"/>
+    <col min="15366" max="15366" width="6.140625" style="1" customWidth="1"/>
+    <col min="15367" max="15367" width="5.5703125" style="1" customWidth="1"/>
+    <col min="15368" max="15368" width="4.85546875" style="1" customWidth="1"/>
+    <col min="15369" max="15369" width="4.140625" style="1" customWidth="1"/>
+    <col min="15370" max="15371" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="15372" max="15372" width="9.7109375" style="1" customWidth="1"/>
+    <col min="15373" max="15373" width="3.7109375" style="1" customWidth="1"/>
+    <col min="15374" max="15374" width="2.42578125" style="1" customWidth="1"/>
+    <col min="15375" max="15375" width="3.7109375" style="1" customWidth="1"/>
+    <col min="15376" max="15376" width="6.5703125" style="1" customWidth="1"/>
+    <col min="15377" max="15377" width="2.42578125" style="1" customWidth="1"/>
+    <col min="15378" max="15378" width="6.28515625" style="1" customWidth="1"/>
+    <col min="15379" max="15617" width="7.7109375" style="1"/>
+    <col min="15618" max="15618" width="3.7109375" style="1" customWidth="1"/>
+    <col min="15619" max="15619" width="9.140625" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="24.7109375" style="1" customWidth="1"/>
+    <col min="15621" max="15621" width="6" style="1" customWidth="1"/>
+    <col min="15622" max="15622" width="6.140625" style="1" customWidth="1"/>
+    <col min="15623" max="15623" width="5.5703125" style="1" customWidth="1"/>
+    <col min="15624" max="15624" width="4.85546875" style="1" customWidth="1"/>
+    <col min="15625" max="15625" width="4.140625" style="1" customWidth="1"/>
+    <col min="15626" max="15627" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="15628" max="15628" width="9.7109375" style="1" customWidth="1"/>
+    <col min="15629" max="15629" width="3.7109375" style="1" customWidth="1"/>
+    <col min="15630" max="15630" width="2.42578125" style="1" customWidth="1"/>
+    <col min="15631" max="15631" width="3.7109375" style="1" customWidth="1"/>
+    <col min="15632" max="15632" width="6.5703125" style="1" customWidth="1"/>
+    <col min="15633" max="15633" width="2.42578125" style="1" customWidth="1"/>
+    <col min="15634" max="15634" width="6.28515625" style="1" customWidth="1"/>
+    <col min="15635" max="15873" width="7.7109375" style="1"/>
+    <col min="15874" max="15874" width="3.7109375" style="1" customWidth="1"/>
+    <col min="15875" max="15875" width="9.140625" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="24.7109375" style="1" customWidth="1"/>
+    <col min="15877" max="15877" width="6" style="1" customWidth="1"/>
+    <col min="15878" max="15878" width="6.140625" style="1" customWidth="1"/>
+    <col min="15879" max="15879" width="5.5703125" style="1" customWidth="1"/>
+    <col min="15880" max="15880" width="4.85546875" style="1" customWidth="1"/>
+    <col min="15881" max="15881" width="4.140625" style="1" customWidth="1"/>
+    <col min="15882" max="15883" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="15884" max="15884" width="9.7109375" style="1" customWidth="1"/>
+    <col min="15885" max="15885" width="3.7109375" style="1" customWidth="1"/>
+    <col min="15886" max="15886" width="2.42578125" style="1" customWidth="1"/>
+    <col min="15887" max="15887" width="3.7109375" style="1" customWidth="1"/>
+    <col min="15888" max="15888" width="6.5703125" style="1" customWidth="1"/>
+    <col min="15889" max="15889" width="2.42578125" style="1" customWidth="1"/>
+    <col min="15890" max="15890" width="6.28515625" style="1" customWidth="1"/>
+    <col min="15891" max="16129" width="7.7109375" style="1"/>
+    <col min="16130" max="16130" width="3.7109375" style="1" customWidth="1"/>
+    <col min="16131" max="16131" width="9.140625" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="24.7109375" style="1" customWidth="1"/>
+    <col min="16133" max="16133" width="6" style="1" customWidth="1"/>
+    <col min="16134" max="16134" width="6.140625" style="1" customWidth="1"/>
+    <col min="16135" max="16135" width="5.5703125" style="1" customWidth="1"/>
+    <col min="16136" max="16136" width="4.85546875" style="1" customWidth="1"/>
+    <col min="16137" max="16137" width="4.140625" style="1" customWidth="1"/>
+    <col min="16138" max="16139" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="16140" max="16140" width="9.7109375" style="1" customWidth="1"/>
+    <col min="16141" max="16141" width="3.7109375" style="1" customWidth="1"/>
+    <col min="16142" max="16142" width="2.42578125" style="1" customWidth="1"/>
+    <col min="16143" max="16143" width="3.7109375" style="1" customWidth="1"/>
+    <col min="16144" max="16144" width="6.5703125" style="1" customWidth="1"/>
+    <col min="16145" max="16145" width="2.42578125" style="1" customWidth="1"/>
+    <col min="16146" max="16146" width="6.28515625" style="1" customWidth="1"/>
+    <col min="16147" max="16384" width="7.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="28">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+    </row>
+    <row r="2" spans="1:23" ht="18" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+    </row>
+    <row r="4" spans="1:23" ht="18" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="17"/>
+    </row>
+    <row r="5" spans="1:23" ht="61" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="9"/>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="8"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="6"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="8"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="6"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="9"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="8"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="6"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="6"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="6"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="6"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="8"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="6"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="8"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="6"/>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="8"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="6"/>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="8"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="6"/>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="8"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="6"/>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="8"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="11"/>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="8"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="11"/>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="12"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="8"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="11"/>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="8"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="11"/>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="12"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="C26:R29"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shun/work/nba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9745E0F5-951D-5E48-BB8C-365B56B3B28E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EB6389-9C01-A743-BC27-A7D888C860CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="620" windowWidth="24200" windowHeight="14000" xr2:uid="{DCC646C4-BC1D-064E-93C5-9541AA6AEE7C}"/>
+    <workbookView xWindow="1400" yWindow="620" windowWidth="24200" windowHeight="14000" xr2:uid="{DCC646C4-BC1D-064E-93C5-9541AA6AEE7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,14 +37,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
   <si>
     <t>チーム名</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>３PA</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>3PM</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -77,6 +69,14 @@
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ネンレイ </t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3PM</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3PA</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1866,19 +1866,19 @@
       <c r="A4" s="12"/>
       <c r="B4" s="23"/>
       <c r="C4" s="21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="18"/>
@@ -1906,38 +1906,38 @@
       <c r="G5" s="22"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T5" s="5"/>
       <c r="U5" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="17">
@@ -2516,7 +2516,9 @@
   </sheetPr>
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5:V5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.7109375" defaultRowHeight="14"/>
   <cols>
@@ -3687,19 +3689,19 @@
       <c r="A4" s="12"/>
       <c r="B4" s="23"/>
       <c r="C4" s="21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="18"/>
@@ -3727,38 +3729,38 @@
       <c r="G5" s="22"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T5" s="5"/>
       <c r="U5" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="17">
@@ -4311,6 +4313,8 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="B26:P29"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="L4:M4"/>
@@ -4321,8 +4325,6 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="B26:P29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
